--- a/Lab 6/Final Calculations.xlsx
+++ b/Lab 6/Final Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prahershkumar/Documents/Prahersh Kumar/School /UIUC/Classes/Fall 2022/AE 460/AE-460/Lab 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB68021-6622-C64E-BB9D-3795AECB68BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0178E04D-FF62-5047-84E1-377AAE57751B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{7DB2D3F6-6F86-4E49-8BA8-4E3C7F5D5D0B}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{7DB2D3F6-6F86-4E49-8BA8-4E3C7F5D5D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="0 ft" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="87">
   <si>
     <t>Data Point</t>
   </si>
@@ -289,6 +289,18 @@
   </si>
   <si>
     <t>C_L/C_D</t>
+  </si>
+  <si>
+    <t>Aerodynamic Function = Neutral Point</t>
+  </si>
+  <si>
+    <t>Chord [in]</t>
+  </si>
+  <si>
+    <t>Chord [ft]</t>
+  </si>
+  <si>
+    <t>Cm/4</t>
   </si>
 </sst>
 </file>
@@ -1438,6 +1450,2065 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1.85</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$U$7:$U$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.3966249999999943E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.3917349999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9044120000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1022428999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.1048100999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.4609258500000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.1797063500000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.769609999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.7083469999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.0517818500000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.6937706000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.2917463499999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.7326085499999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.2916998999999972E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1.9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$V$7:$V$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.7484499999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.2985899999999972E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9140910000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0089655999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.9246423999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.1783429000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.8188289000000041E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.3356480000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.2125889999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.5271559000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.1686514000000034E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.7273048999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.1214737000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.6356825999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1.8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$T$7:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.044799999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.484880000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8947329999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1955201999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.2849777999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.7435088000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.5405838000000031E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.2035720000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.2041049999999976E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.5764077999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.2188898000000038E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.8561877999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.3437434000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9.9477171999999975E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>1.95</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$W$7:$W$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.1002749999999978E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.2054450000000022E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.92377E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.9156882999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.7444746999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.8957599500000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.4579514500000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.9016860000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.7168310000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.0025299500000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.6435322000000047E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.1628634499999982E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.5103388500000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.9796652999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$X$7:$X$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-5.4790000000000394E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.1123000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9334489999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.8224109999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5643069999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.6131770000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.0970740000000023E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.4677239999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.2210729999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.477904000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.1184130000000031E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.5984219999999982E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.8992040000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.3236479999999993E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>2.05</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$Y$7:$Y$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-2.1960749999999918E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0019154999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9431279999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.7291336999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.3841393000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.3305940500000024E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.7361965500000028E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.0337620000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.7253150000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.9532780500000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.5932938000000043E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.033980550000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.288069150000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.667630699999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>2.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$Z$7:$Z$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-3.8442500000000074E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0926010000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9528070000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.6358563999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2039715999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.0480111000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.3753191000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.5997999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.2295569999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.4286521000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.0681746000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.4695390999999982E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.6769342999999972E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.0116133999999988E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>2.15</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$AB$7:$AB$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-7.1406000000000108E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2739720000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.972165E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4493017999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8436361999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.4828452000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.6535642000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.7318759999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2380409999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.3794001999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.0179362000000024E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.3406561999999954E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.4546645999999968E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.6995787999999983E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>2.2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$AB$7:$AB$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-7.1406000000000108E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2739720000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.972165E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4493017999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8436361999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.4828452000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.6535642000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.7318759999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2380409999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.3794001999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.0179362000000024E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.3406561999999954E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.4546645999999968E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.6995787999999983E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>2.25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$AC$7:$AC$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-8.7887749999999987E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3646574999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.981844E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.3560244999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.6634684999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.2002622500000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.2926867500000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.2979139999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.742282999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.854774250000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.4928170000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.776214750000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8435297500000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.043561499999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>2.3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$AD$7:$AD$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-1.043695E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.4553429999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9915229999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2627472000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.4833007999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9176793000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.9318093000000026E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8639520000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2465250000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.3301483000000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.9676978000000048E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.2117732999999982E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.2323949000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.3875442000000033E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>2.35</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$AE$7:$AE$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-1.2085125000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5460285000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0012019999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1694698999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.3031330999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.63509635E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.5709318500000031E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.4299899999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.7507669999999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8055223500000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.4425786000000033E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.6473318499999954E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.6212600500000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.7315268999999975E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>2.4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$AF$7:$AF$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-1.3733300000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6367139999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0108810000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0761926E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.1229653999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.3525134000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.2100544000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.9960280000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2550089999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2808964000000043E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.9174594000000045E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.0828903999999981E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.0101252000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.0755096000000028E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-E98D-804E-840D-A23F77640EFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389676976"/>
+        <c:axId val="886029871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="389676976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886029871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="886029871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389676976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1526,46 +3597,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-0.27143972875223527</c:v>
+                  <c:v>-0.28939417723322036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14563381589967425</c:v>
+                  <c:v>-0.15031903578759775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5474573063018322E-2</c:v>
+                  <c:v>-1.5513140909231844E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15157136900136134</c:v>
+                  <c:v>0.15035830615954232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29307647591665187</c:v>
+                  <c:v>0.28320682449154755</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45933524842991802</c:v>
+                  <c:v>0.43552845252789207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58614770978618791</c:v>
+                  <c:v>0.54569041061671864</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68837459261317013</c:v>
+                  <c:v>0.61391723901995776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77185650717739451</c:v>
+                  <c:v>0.66357321342917963</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80040605484141392</c:v>
+                  <c:v>0.64320536509498283</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81211994884123773</c:v>
+                  <c:v>0.60787952368581954</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87499642885372675</c:v>
+                  <c:v>0.61303414357973329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.90255963445108567</c:v>
+                  <c:v>0.58340967318013071</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9606829989527168</c:v>
+                  <c:v>0.55687703428820445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1663,46 +3734,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-0.31611798844771083</c:v>
+                  <c:v>-0.31633596832526323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.17878953476078277</c:v>
+                  <c:v>-0.17783863512242473</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.9193951454754972E-2</c:v>
+                  <c:v>-2.916043692196716E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7364577295097843E-2</c:v>
+                  <c:v>9.5063404972440521E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26243186468492968</c:v>
+                  <c:v>0.25631135736712718</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4435786659959654</c:v>
+                  <c:v>0.43301715388555428</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58136757882618684</c:v>
+                  <c:v>0.56646147576832984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68424269483067712</c:v>
+                  <c:v>0.66032339157888842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72763802323883042</c:v>
+                  <c:v>0.69590877669619966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75177612114800429</c:v>
+                  <c:v>0.71009216816196474</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74244503417056995</c:v>
+                  <c:v>0.68881142089030012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.77300083134584929</c:v>
+                  <c:v>0.70756676507220218</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78631707477058721</c:v>
+                  <c:v>0.70713476190274527</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.84486073040376986</c:v>
+                  <c:v>0.74891986137933653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2042,7 +4113,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2178,46 +4249,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.9318496621718018E-2</c:v>
+                  <c:v>-0.2329553071325399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0268152827784964E-3</c:v>
+                  <c:v>-0.13071050789775382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1839049253492387E-6</c:v>
+                  <c:v>-6.4976348824954372E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3433332600687222E-3</c:v>
+                  <c:v>3.9753613635660406E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0645795117446766E-2</c:v>
+                  <c:v>0.16074999753447902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7710648141258381E-2</c:v>
+                  <c:v>0.27691106641268837</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2385101055819004E-2</c:v>
+                  <c:v>0.37022784141067955</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12172079747702319</c:v>
+                  <c:v>0.54280373078969302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1637013613708469</c:v>
+                  <c:v>0.67426012641875477</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2004273885485551</c:v>
+                  <c:v>0.82820777729421802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2328286900416888</c:v>
+                  <c:v>0.94523111604353471</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28362036595065443</c:v>
+                  <c:v>1.0917995083081027</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32858388331520633</c:v>
+                  <c:v>1.2052302649743662</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38882272633890619</c:v>
+                  <c:v>1.3865255324006356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2315,46 +4386,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.1805024446056791E-2</c:v>
+                  <c:v>1.8644864704690602E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3892111288786392E-3</c:v>
+                  <c:v>3.2998271389510454E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7054958378568745E-5</c:v>
+                  <c:v>5.7385804944056241E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2634013646496048E-3</c:v>
+                  <c:v>7.1919581050584686E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8744543185774273E-2</c:v>
+                  <c:v>0.10443434273488661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6187128089013332E-2</c:v>
+                  <c:v>0.14761931594463357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1065886497896381E-2</c:v>
+                  <c:v>0.1879656617159815</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12105606718530111</c:v>
+                  <c:v>0.25625464827272093</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15438908552441821</c:v>
+                  <c:v>0.30392948959323957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18632968995780344</c:v>
+                  <c:v>0.35451008298618897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21265305812787713</c:v>
+                  <c:v>0.39990646607377028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24988023190514397</c:v>
+                  <c:v>0.45229955592381771</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28699115460485025</c:v>
+                  <c:v>0.50394001741401317</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.34210130415008594</c:v>
+                  <c:v>0.57903893547812701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2694,7 +4765,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3230,7 +5301,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3315,46 +5386,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.9318496621718018E-2</c:v>
+                  <c:v>-0.2329553071325399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0268152827784964E-3</c:v>
+                  <c:v>-0.13071050789775382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1839049253492387E-6</c:v>
+                  <c:v>-6.4976348824954372E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3433332600687222E-3</c:v>
+                  <c:v>3.9753613635660406E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0645795117446766E-2</c:v>
+                  <c:v>0.16074999753447902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7710648141258381E-2</c:v>
+                  <c:v>0.27691106641268837</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2385101055819004E-2</c:v>
+                  <c:v>0.37022784141067955</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12172079747702319</c:v>
+                  <c:v>0.54280373078969302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1637013613708469</c:v>
+                  <c:v>0.67426012641875477</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2004273885485551</c:v>
+                  <c:v>0.82820777729421802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2328286900416888</c:v>
+                  <c:v>0.94523111604353471</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28362036595065443</c:v>
+                  <c:v>1.0917995083081027</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32858388331520633</c:v>
+                  <c:v>1.2052302649743662</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38882272633890619</c:v>
+                  <c:v>1.3865255324006356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3366,46 +5437,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-0.27143972875223527</c:v>
+                  <c:v>-0.28939417723322036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14563381589967425</c:v>
+                  <c:v>-0.15031903578759775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.5474573063018322E-2</c:v>
+                  <c:v>-1.5513140909231844E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15157136900136134</c:v>
+                  <c:v>0.15035830615954232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29307647591665187</c:v>
+                  <c:v>0.28320682449154755</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45933524842991802</c:v>
+                  <c:v>0.43552845252789207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58614770978618791</c:v>
+                  <c:v>0.54569041061671864</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68837459261317013</c:v>
+                  <c:v>0.61391723901995776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77185650717739451</c:v>
+                  <c:v>0.66357321342917963</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80040605484141392</c:v>
+                  <c:v>0.64320536509498283</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81211994884123773</c:v>
+                  <c:v>0.60787952368581954</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87499642885372675</c:v>
+                  <c:v>0.61303414357973329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.90255963445108567</c:v>
+                  <c:v>0.58340967318013071</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9606829989527168</c:v>
+                  <c:v>0.55687703428820445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3452,46 +5523,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.1805024446056791E-2</c:v>
+                  <c:v>1.8644864704690602E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3892111288786392E-3</c:v>
+                  <c:v>3.2998271389510454E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7054958378568745E-5</c:v>
+                  <c:v>5.7385804944056241E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2634013646496048E-3</c:v>
+                  <c:v>7.1919581050584686E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8744543185774273E-2</c:v>
+                  <c:v>0.10443434273488661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6187128089013332E-2</c:v>
+                  <c:v>0.14761931594463357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1065886497896381E-2</c:v>
+                  <c:v>0.1879656617159815</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12105606718530111</c:v>
+                  <c:v>0.25625464827272093</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15438908552441821</c:v>
+                  <c:v>0.30392948959323957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18632968995780344</c:v>
+                  <c:v>0.35451008298618897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21265305812787713</c:v>
+                  <c:v>0.39990646607377028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24988023190514397</c:v>
+                  <c:v>0.45229955592381771</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28699115460485025</c:v>
+                  <c:v>0.50394001741401317</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.34210130415008594</c:v>
+                  <c:v>0.57903893547812701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3503,46 +5574,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-0.31611798844771083</c:v>
+                  <c:v>-0.31633596832526323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.17878953476078277</c:v>
+                  <c:v>-0.17783863512242473</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.9193951454754972E-2</c:v>
+                  <c:v>-2.916043692196716E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7364577295097843E-2</c:v>
+                  <c:v>9.5063404972440521E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26243186468492968</c:v>
+                  <c:v>0.25631135736712718</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4435786659959654</c:v>
+                  <c:v>0.43301715388555428</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58136757882618684</c:v>
+                  <c:v>0.56646147576832984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68424269483067712</c:v>
+                  <c:v>0.66032339157888842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72763802323883042</c:v>
+                  <c:v>0.69590877669619966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75177612114800429</c:v>
+                  <c:v>0.71009216816196474</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74244503417056995</c:v>
+                  <c:v>0.68881142089030012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.77300083134584929</c:v>
+                  <c:v>0.70756676507220218</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78631707477058721</c:v>
+                  <c:v>0.70713476190274527</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.84486073040376986</c:v>
+                  <c:v>0.74891986137933653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3741,7 +5812,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3877,46 +5948,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-14.050768756357595</c:v>
+                  <c:v>1.2422733819434713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.7459231604780268</c:v>
+                  <c:v>1.1500149315094266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.82722624285114454</c:v>
+                  <c:v>0.2387505790918491</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9670980220921681</c:v>
+                  <c:v>3.782255055793609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.360165475407472</c:v>
+                  <c:v>1.7617843162380324</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.022026688594877</c:v>
+                  <c:v>1.5728098489166618</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.542575344206757</c:v>
+                  <c:v>1.4739313189885286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.522468846386786</c:v>
+                  <c:v>1.1310114580951864</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.448553026095105</c:v>
+                  <c:v>0.98415016316278803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.494821757871023</c:v>
+                  <c:v>0.77662318892531512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.141924174512774</c:v>
+                  <c:v>0.64310147366945369</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.890065470738939</c:v>
+                  <c:v>0.5614896681257131</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.079997488795534</c:v>
+                  <c:v>0.48406490455376938</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.971823267830743</c:v>
+                  <c:v>0.40163489331785002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4014,46 +6085,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-14.497483790020581</c:v>
+                  <c:v>-16.966385829856982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.2413493939101503</c:v>
+                  <c:v>-5.3893318538787574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.3336409524345809</c:v>
+                  <c:v>-0.50814721428748499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4779310246984423</c:v>
+                  <c:v>1.3218014285369324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.024494058953826</c:v>
+                  <c:v>2.4542822854526913</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.111560707355913</c:v>
+                  <c:v>2.9333366782973216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.425010948462663</c:v>
+                  <c:v>3.0136433995282621</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.001947116740006</c:v>
+                  <c:v>2.5768250294376491</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.275094037062281</c:v>
+                  <c:v>2.2897046865296318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.813929573776164</c:v>
+                  <c:v>2.0030238976013233</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.684054130342652</c:v>
+                  <c:v>1.7224313166350149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.752430225160772</c:v>
+                  <c:v>1.5643764310734365</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.256242631335688</c:v>
+                  <c:v>1.4032121630892371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.378739069853722</c:v>
+                  <c:v>1.2933842881583335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4453,6 +6524,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7588,6 +9699,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7630,6 +10257,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2879F4AB-0D32-F14B-B68E-FD55C847ED07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7714,20 +10382,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>604520</xdr:colOff>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>248920</xdr:colOff>
+      <xdr:colOff>223520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7799,7 +10467,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7840,7 +10508,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8216,7 +10884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1DB3D1-EEDA-8C42-8D7A-DBDBF882D52B}">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -9928,10 +12596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB9CFD-C2AD-D349-8BB0-705312183456}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9949,9 +12617,10 @@
     <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9998,7 +12667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -10045,7 +12714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10092,7 +12761,7 @@
         <v>-6.5379099999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10139,7 +12808,7 @@
         <v>-2.7161899999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10185,8 +12854,50 @@
       <c r="O6">
         <v>1.546289E-2</v>
       </c>
+      <c r="S6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6">
+        <v>1.8</v>
+      </c>
+      <c r="U6">
+        <v>1.85</v>
+      </c>
+      <c r="V6">
+        <v>1.9</v>
+      </c>
+      <c r="W6">
+        <v>1.95</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Z6">
+        <v>2.1</v>
+      </c>
+      <c r="AA6">
+        <v>2.15</v>
+      </c>
+      <c r="AB6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AC6">
+        <v>2.25</v>
+      </c>
+      <c r="AD6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AE6">
+        <v>2.35</v>
+      </c>
+      <c r="AF6">
+        <v>2.4</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -10232,8 +12943,63 @@
       <c r="O7">
         <v>6.5535029999999994E-2</v>
       </c>
+      <c r="S7">
+        <v>-4.0709042000000002</v>
+      </c>
+      <c r="T7">
+        <f>$T$6*N4-O4</f>
+        <v>6.044799999999996E-3</v>
+      </c>
+      <c r="U7">
+        <f>$U$6*N4-O4</f>
+        <v>4.3966249999999943E-3</v>
+      </c>
+      <c r="V7">
+        <f>$V$6*N4-O4</f>
+        <v>2.7484499999999995E-3</v>
+      </c>
+      <c r="W7">
+        <f>$W$6*N4-O4</f>
+        <v>1.1002749999999978E-3</v>
+      </c>
+      <c r="X7">
+        <f>$X$6*N4-O4</f>
+        <v>-5.4790000000000394E-4</v>
+      </c>
+      <c r="Y7">
+        <f>$Y$6*N4-O4</f>
+        <v>-2.1960749999999918E-3</v>
+      </c>
+      <c r="Z7">
+        <f>$Z$6*N4-O4</f>
+        <v>-3.8442500000000074E-3</v>
+      </c>
+      <c r="AA7">
+        <f>$AA$6*N4-O4</f>
+        <v>-5.4924249999999952E-3</v>
+      </c>
+      <c r="AB7">
+        <f>$AB$6*N4-O4</f>
+        <v>-7.1406000000000108E-3</v>
+      </c>
+      <c r="AC7">
+        <f>$AC$6*N4-O4</f>
+        <v>-8.7887749999999987E-3</v>
+      </c>
+      <c r="AD7">
+        <f>$AD$6*N4-O4</f>
+        <v>-1.043695E-2</v>
+      </c>
+      <c r="AE7">
+        <f>$AE$6*N4-O4</f>
+        <v>-1.2085125000000002E-2</v>
+      </c>
+      <c r="AF7">
+        <f>$AF$6*N4-O4</f>
+        <v>-1.3733300000000004E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -10279,8 +13045,63 @@
       <c r="O8">
         <v>0.11771015</v>
       </c>
+      <c r="S8">
+        <v>-1.9768829000000001</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T20" si="0">$T$6*N5-O5</f>
+        <v>-5.484880000000001E-3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:U20" si="1">$U$6*N5-O5</f>
+        <v>-6.3917349999999991E-3</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ref="V8:V20" si="2">$V$6*N5-O5</f>
+        <v>-7.2985899999999972E-3</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ref="W8:W20" si="3">$W$6*N5-O5</f>
+        <v>-8.2054450000000022E-3</v>
+      </c>
+      <c r="X8">
+        <f t="shared" ref="X8:X20" si="4">$X$6*N5-O5</f>
+        <v>-9.1123000000000003E-3</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" ref="Y8:Y20" si="5">$Y$6*N5-O5</f>
+        <v>-1.0019154999999998E-2</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ref="Z8:Z20" si="6">$Z$6*N5-O5</f>
+        <v>-1.0926010000000003E-2</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" ref="AA8:AA20" si="7">$AA$6*N5-O5</f>
+        <v>-1.1832865000000001E-2</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ref="AB8:AB20" si="8">$AB$6*N5-O5</f>
+        <v>-1.2739720000000006E-2</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" ref="AC8:AC20" si="9">$AC$6*N5-O5</f>
+        <v>-1.3646574999999998E-2</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" ref="AD8:AD20" si="10">$AD$6*N5-O5</f>
+        <v>-1.4553429999999996E-2</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" ref="AE8:AE20" si="11">$AE$6*N5-O5</f>
+        <v>-1.5460285000000001E-2</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" ref="AF8:AF20" si="12">$AF$6*N5-O5</f>
+        <v>-1.6367139999999999E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10326,8 +13147,63 @@
       <c r="O9">
         <v>0.16916495000000001</v>
       </c>
+      <c r="S9">
+        <v>-3.4004100000000002E-2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>-1.8947329999999998E-2</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>-1.9044120000000001E-2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>-1.9140910000000001E-2</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="3"/>
+        <v>-1.92377E-2</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="4"/>
+        <v>-1.9334489999999999E-2</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="5"/>
+        <v>-1.9431279999999999E-2</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="6"/>
+        <v>-1.9528070000000002E-2</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="7"/>
+        <v>-1.9624860000000001E-2</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="8"/>
+        <v>-1.972165E-2</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="9"/>
+        <v>-1.981844E-2</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="10"/>
+        <v>-1.9915229999999999E-2</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="11"/>
+        <v>-2.0012019999999998E-2</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="12"/>
+        <v>-2.0108810000000001E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -10373,8 +13249,63 @@
       <c r="O10">
         <v>0.20532172000000001</v>
       </c>
+      <c r="S10">
+        <v>2.0190073900000001</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>-3.1955201999999995E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>-3.1022428999999997E-2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>-3.0089655999999999E-2</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="3"/>
+        <v>-2.9156882999999995E-2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="4"/>
+        <v>-2.8224109999999997E-2</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="5"/>
+        <v>-2.7291336999999999E-2</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="6"/>
+        <v>-2.6358563999999994E-2</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="7"/>
+        <v>-2.5425790999999996E-2</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="8"/>
+        <v>-2.4493017999999991E-2</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="9"/>
+        <v>-2.3560244999999994E-2</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="10"/>
+        <v>-2.2627472000000003E-2</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="11"/>
+        <v>-2.1694698999999998E-2</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="12"/>
+        <v>-2.0761926E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -10420,8 +13351,63 @@
       <c r="O11">
         <v>0.23826204000000001</v>
       </c>
+      <c r="S11">
+        <v>4.0295488800000001</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>-5.2849777999999986E-2</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>-5.1048100999999985E-2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>-4.9246423999999997E-2</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="3"/>
+        <v>-4.7444746999999995E-2</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="4"/>
+        <v>-4.5643069999999994E-2</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="5"/>
+        <v>-4.3841393000000006E-2</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="6"/>
+        <v>-4.2039715999999991E-2</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="7"/>
+        <v>-4.0238039000000003E-2</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="8"/>
+        <v>-3.8436361999999988E-2</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="9"/>
+        <v>-3.6634684999999986E-2</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="10"/>
+        <v>-3.4833007999999999E-2</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="11"/>
+        <v>-3.3031330999999983E-2</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="12"/>
+        <v>-3.1229653999999996E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -10467,8 +13453,63 @@
       <c r="O12">
         <v>0.26051393</v>
       </c>
+      <c r="S12">
+        <v>5.92998504</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>-6.7435088000000004E-2</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>-6.4609258500000002E-2</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>-6.1783429000000015E-2</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="3"/>
+        <v>-5.8957599500000013E-2</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="4"/>
+        <v>-5.6131770000000011E-2</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="5"/>
+        <v>-5.3305940500000024E-2</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="6"/>
+        <v>-5.0480111000000008E-2</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="7"/>
+        <v>-4.765428150000002E-2</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="8"/>
+        <v>-4.4828452000000005E-2</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="9"/>
+        <v>-4.2002622500000003E-2</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="10"/>
+        <v>-3.9176793000000015E-2</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="11"/>
+        <v>-3.63509635E-2</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="12"/>
+        <v>-3.3525134000000012E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -10514,8 +13555,63 @@
       <c r="O13">
         <v>0.27462942000000001</v>
       </c>
+      <c r="S13">
+        <v>8.0007105500000009</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>-7.5405838000000031E-2</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>-7.1797063500000008E-2</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>-6.8188289000000041E-2</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="3"/>
+        <v>-6.4579514500000018E-2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="4"/>
+        <v>-6.0970740000000023E-2</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="5"/>
+        <v>-5.7361965500000028E-2</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="6"/>
+        <v>-5.3753191000000006E-2</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="7"/>
+        <v>-5.0144416500000039E-2</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="8"/>
+        <v>-4.6535642000000016E-2</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="9"/>
+        <v>-4.2926867500000021E-2</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="10"/>
+        <v>-3.9318093000000026E-2</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="11"/>
+        <v>-3.5709318500000031E-2</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="12"/>
+        <v>-3.2100544000000036E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -10561,8 +13657,63 @@
       <c r="O14">
         <v>0.27123181000000002</v>
       </c>
+      <c r="S14">
+        <v>10.0275877</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>-8.2035720000000006E-2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>-7.769609999999999E-2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>-7.3356480000000002E-2</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>-6.9016860000000013E-2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="4"/>
+        <v>-6.4677239999999997E-2</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="5"/>
+        <v>-6.0337620000000008E-2</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="6"/>
+        <v>-5.5997999999999992E-2</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="7"/>
+        <v>-5.1658380000000004E-2</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="8"/>
+        <v>-4.7318759999999987E-2</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="9"/>
+        <v>-4.2979139999999999E-2</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="10"/>
+        <v>-3.8639520000000011E-2</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="11"/>
+        <v>-3.4299899999999994E-2</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="12"/>
+        <v>-2.9960280000000006E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -10608,8 +13759,63 @@
       <c r="O15">
         <v>0.29176079999999999</v>
       </c>
+      <c r="S15">
+        <v>11.9743014</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>-8.2041049999999976E-2</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>-7.7083469999999987E-2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>-7.2125889999999998E-2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="3"/>
+        <v>-6.7168310000000009E-2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="4"/>
+        <v>-6.2210729999999992E-2</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="5"/>
+        <v>-5.7253150000000003E-2</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="6"/>
+        <v>-5.2295569999999986E-2</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="7"/>
+        <v>-4.7337989999999996E-2</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="8"/>
+        <v>-4.2380409999999979E-2</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="9"/>
+        <v>-3.742282999999999E-2</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="10"/>
+        <v>-3.2465250000000001E-2</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="11"/>
+        <v>-2.7507669999999984E-2</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="12"/>
+        <v>-2.2550089999999995E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -10655,8 +13861,63 @@
       <c r="O16">
         <v>0.31344598000000001</v>
       </c>
+      <c r="S16">
+        <v>14.0581964</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>-8.5764077999999994E-2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>-8.0517818500000005E-2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>-7.5271559000000016E-2</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="3"/>
+        <v>-7.0025299500000027E-2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="4"/>
+        <v>-6.477904000000001E-2</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="5"/>
+        <v>-5.9532780500000021E-2</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="6"/>
+        <v>-5.4286521000000004E-2</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="7"/>
+        <v>-4.9040261500000015E-2</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="8"/>
+        <v>-4.3794001999999999E-2</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="9"/>
+        <v>-3.854774250000001E-2</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="10"/>
+        <v>-3.3301483000000021E-2</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="11"/>
+        <v>-2.8055223500000004E-2</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="12"/>
+        <v>-2.2808964000000043E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -10702,8 +13963,177 @@
       <c r="O17">
         <v>0.33564339999999998</v>
       </c>
+      <c r="S17">
+        <v>15.997199500000001</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>-8.2188898000000038E-2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>-7.6937706000000022E-2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>-7.1686514000000034E-2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="3"/>
+        <v>-6.6435322000000047E-2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="4"/>
+        <v>-6.1184130000000031E-2</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="5"/>
+        <v>-5.5932938000000043E-2</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="6"/>
+        <v>-5.0681746000000027E-2</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="7"/>
+        <v>-4.543055400000004E-2</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="8"/>
+        <v>-4.0179362000000024E-2</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="9"/>
+        <v>-3.4928170000000036E-2</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="10"/>
+        <v>-2.9676978000000048E-2</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="11"/>
+        <v>-2.4425786000000033E-2</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="12"/>
+        <v>-1.9174594000000045E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <v>17.959525500000002</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>-8.8561877999999983E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>-8.2917463499999983E-2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>-7.7273048999999983E-2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="3"/>
+        <v>-7.1628634499999982E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="4"/>
+        <v>-6.5984219999999982E-2</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="5"/>
+        <v>-6.033980550000001E-2</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="6"/>
+        <v>-5.4695390999999982E-2</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="7"/>
+        <v>-4.9050976499999982E-2</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="8"/>
+        <v>-4.3406561999999954E-2</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="9"/>
+        <v>-3.776214750000001E-2</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="10"/>
+        <v>-3.2117732999999982E-2</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="11"/>
+        <v>-2.6473318499999954E-2</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="12"/>
+        <v>-2.0828903999999981E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="S19">
+        <v>20.004430599999999</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>-9.3437434000000014E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>-8.7326085499999984E-2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>-8.1214737000000009E-2</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="3"/>
+        <v>-7.5103388500000007E-2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="4"/>
+        <v>-6.8992040000000004E-2</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="5"/>
+        <v>-6.288069150000003E-2</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="6"/>
+        <v>-5.6769342999999972E-2</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="7"/>
+        <v>-5.0657994500000025E-2</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="8"/>
+        <v>-4.4546645999999968E-2</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="9"/>
+        <v>-3.8435297500000021E-2</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="10"/>
+        <v>-3.2323949000000018E-2</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="11"/>
+        <v>-2.6212600500000016E-2</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="12"/>
+        <v>-2.0101252000000014E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>65</v>
       </c>
@@ -10721,132 +14151,187 @@
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
+      <c r="S20">
+        <v>22.034937899999999</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>-9.9477171999999975E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>-9.2916998999999972E-2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>-8.6356825999999998E-2</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="3"/>
+        <v>-7.9796652999999995E-2</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="4"/>
+        <v>-7.3236479999999993E-2</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="5"/>
+        <v>-6.667630699999999E-2</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="6"/>
+        <v>-6.0116133999999988E-2</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="7"/>
+        <v>-5.3555960999999985E-2</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="8"/>
+        <v>-4.6995787999999983E-2</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="9"/>
+        <v>-4.043561499999998E-2</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="10"/>
+        <v>-3.3875442000000033E-2</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="11"/>
+        <v>-2.7315268999999975E-2</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="12"/>
+        <v>-2.0755096000000028E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="str">
         <f>A1</f>
         <v>Data Point</v>
       </c>
       <c r="B21" s="10" t="str">
-        <f t="shared" ref="B21:O21" si="0">B1</f>
+        <f t="shared" ref="B21:O21" si="13">B1</f>
         <v> Corr Factor</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v> Length Scale</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v> AmbPress</v>
       </c>
       <c r="E21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v> AmbTemp</v>
       </c>
       <c r="F21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v> Density</v>
       </c>
       <c r="G21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v> Viscosity</v>
       </c>
       <c r="H21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v> Motor Speed</v>
       </c>
       <c r="I21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v> Angle of Attack</v>
       </c>
       <c r="J21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v> Corrected q</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v> Avg Velocity</v>
       </c>
       <c r="L21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v> Reynolds number</v>
       </c>
       <c r="M21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v> Axial Force</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>Normal Force</v>
       </c>
       <c r="O21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v> Pitching Mom</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="str">
-        <f t="shared" ref="A22:O37" si="1">A2</f>
+        <f t="shared" ref="A22:O37" si="14">A2</f>
         <v>#</v>
       </c>
       <c r="B22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> ND</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> [in]</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> [psia]</v>
       </c>
       <c r="E22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> [R]</v>
       </c>
       <c r="F22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> [slug/ft3]</v>
       </c>
       <c r="G22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> [slug/ft s]</v>
       </c>
       <c r="H22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> [RPM]</v>
       </c>
       <c r="I22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> [deg]</v>
       </c>
       <c r="J22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> [dpsi]</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> [ft/s]</v>
       </c>
       <c r="L22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> ND</v>
       </c>
       <c r="M22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> [Lbf]</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> [Lbf]</v>
       </c>
       <c r="O22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v> [in-Lbf]</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -10863,53 +14348,53 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-4.0709042000000002</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.209878E-2</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>39.258720400000001</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>48376.863299999997</v>
       </c>
       <c r="M24" s="10">
@@ -10925,53 +14410,53 @@
         <v>0.40469650800000001</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="B25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-1.9768829000000001</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.2431569999999999E-2</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>39.794979099999999</v>
       </c>
       <c r="L25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>49037.671900000001</v>
       </c>
       <c r="M25" s="10">
@@ -10987,53 +14472,53 @@
         <v>0.44069835999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="B26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-3.4004100000000002E-2</v>
       </c>
       <c r="J26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.249455E-2</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>39.895656600000002</v>
       </c>
       <c r="L26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>49161.730499999998</v>
       </c>
       <c r="M26" s="10">
@@ -11049,53 +14534,53 @@
         <v>0.48053222200000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.0190073900000001</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.228565E-2</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>39.56073</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>48749.015599999999</v>
       </c>
       <c r="M27" s="10">
@@ -11111,53 +14596,53 @@
         <v>0.52846435799999991</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="B28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>4.0295488800000001</v>
       </c>
       <c r="J28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.224983E-2</v>
       </c>
       <c r="K28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>39.503017399999997</v>
       </c>
       <c r="L28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>48677.898399999998</v>
       </c>
       <c r="M28" s="10">
@@ -11173,53 +14658,53 @@
         <v>0.57905161299999997</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="B29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>5.92998504</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.222348E-2</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>39.460514099999997</v>
       </c>
       <c r="L29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>48625.523399999998</v>
       </c>
       <c r="M29" s="10">
@@ -11235,53 +14720,53 @@
         <v>0.62713855100000004</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="B30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>8.0007105500000009</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.217905E-2</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>39.388740499999997</v>
       </c>
       <c r="L30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>48537.078099999999</v>
       </c>
       <c r="M30" s="10">
@@ -11297,53 +14782,53 @@
         <v>0.65984020099999996</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="B31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>10.0275877</v>
       </c>
       <c r="J31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.240082E-2</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>39.745727500000001</v>
       </c>
       <c r="L31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>48976.980499999998</v>
       </c>
       <c r="M31" s="10">
@@ -11359,53 +14844,53 @@
         <v>0.68913223600000006</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="B32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>11.9743014</v>
       </c>
       <c r="J32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.255127E-2</v>
       </c>
       <c r="K32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>39.986114499999999</v>
       </c>
       <c r="L32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>49273.199200000003</v>
       </c>
       <c r="M32" s="10">
@@ -11423,51 +14908,51 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="B33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.0581964</v>
       </c>
       <c r="J33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.270113E-2</v>
       </c>
       <c r="K33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>40.224105799999997</v>
       </c>
       <c r="L33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>49566.464800000002</v>
       </c>
       <c r="M33" s="10">
@@ -11485,51 +14970,51 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="B34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>15.997199500000001</v>
       </c>
       <c r="J34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.241636E-2</v>
       </c>
       <c r="K34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>39.770629900000003</v>
       </c>
       <c r="L34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>49007.664100000002</v>
       </c>
       <c r="M34" s="10">
@@ -11547,51 +15032,51 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="B35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>17.959525500000002</v>
       </c>
       <c r="J35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.225822E-2</v>
       </c>
       <c r="K35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>39.516548200000003</v>
       </c>
       <c r="L35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>48694.570299999999</v>
       </c>
       <c r="M35" s="10">
@@ -11609,51 +15094,51 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="B36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>20.004430599999999</v>
       </c>
       <c r="J36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.2709939999999999E-2</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>40.238067600000001</v>
       </c>
       <c r="L36" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>49583.667999999998</v>
       </c>
       <c r="M36" s="10">
@@ -11671,51 +15156,51 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="B37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>22.034937899999999</v>
       </c>
       <c r="J37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>1.2644529999999999E-2</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>40.134395599999998</v>
       </c>
       <c r="L37" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>49455.917999999998</v>
       </c>
       <c r="M37" s="10">
@@ -11838,701 +15323,701 @@
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49">
-        <f t="shared" ref="C49:C62" si="2">C4*0.0254</f>
+        <f t="shared" ref="C49:C62" si="15">C4*0.0254</f>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:D62" si="3">D4*6894.76</f>
+        <f t="shared" ref="D49:D62" si="16">D4*6894.76</f>
         <v>99186.524644460005</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E62" si="4">E4*0.555556</f>
+        <f t="shared" ref="E49:E62" si="17">E4*0.555556</f>
         <v>296.65023732000003</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49:F62" si="5">F4*515.379</f>
+        <f t="shared" ref="F49:F62" si="18">F4*515.379</f>
         <v>1.1651688432</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" ref="G49:G62" si="6">G4*157.087</f>
+        <f t="shared" ref="G49:G62" si="19">G4*157.087</f>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I49">
-        <f t="shared" ref="I49:I62" si="7">I4/180*PI()</f>
+        <f t="shared" ref="I49:I62" si="20">I4/180*PI()</f>
         <v>-7.1050681823265752E-2</v>
       </c>
       <c r="J49">
-        <f t="shared" ref="J49:J62" si="8">J4*6894.76</f>
+        <f t="shared" ref="J49:J62" si="21">J4*6894.76</f>
         <v>83.418184392800001</v>
       </c>
       <c r="K49">
-        <f t="shared" ref="K49:K62" si="9">K4*0.3048</f>
+        <f t="shared" ref="K49:K62" si="22">K4*0.3048</f>
         <v>11.96605797792</v>
       </c>
       <c r="L49">
-        <f t="shared" ref="L49:L62" si="10">L4</f>
+        <f t="shared" ref="L49:L62" si="23">L4</f>
         <v>48376.863299999997</v>
       </c>
       <c r="M49">
-        <f t="shared" ref="M49:N62" si="11">M4*4.44822</f>
+        <f t="shared" ref="M49:N62" si="24">M4*4.44822</f>
         <v>-0.13627566792000001</v>
       </c>
       <c r="N49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>-0.14662889997</v>
       </c>
       <c r="O49">
-        <f t="shared" ref="O49:O62" si="12">O4*0.1129848333</f>
+        <f t="shared" ref="O49:O62" si="25">O4*0.1129848333</f>
         <v>-7.3868467148040301E-3</v>
       </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>-3.4503115531373814E-2</v>
       </c>
       <c r="J50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>85.712691573200004</v>
       </c>
       <c r="K50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.129509629680001</v>
       </c>
       <c r="L50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>49037.671900000001</v>
       </c>
       <c r="M50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>-7.5195379812000002E-2</v>
       </c>
       <c r="N50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>-8.0677810961999996E-2</v>
       </c>
       <c r="O50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>-3.06888274361127E-3</v>
       </c>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>-5.9348350417740383E-4</v>
       </c>
       <c r="J51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>86.146923557999997</v>
       </c>
       <c r="K51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.160196131680001</v>
       </c>
       <c r="L51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>49161.730499999998</v>
       </c>
       <c r="M51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>-3.6161359668E-2</v>
       </c>
       <c r="N51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>-8.610864276E-3</v>
       </c>
       <c r="O51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.7470720489862371E-3</v>
       </c>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>3.5238326577597234E-2</v>
       </c>
       <c r="J52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>84.706608194000012</v>
       </c>
       <c r="K52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.058110504</v>
       </c>
       <c r="L52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>48749.015599999999</v>
       </c>
       <c r="M52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.8839234790600002E-2</v>
       </c>
       <c r="N52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>8.298359028119999E-2</v>
       </c>
       <c r="O52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>7.4044644398604982E-3</v>
       </c>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>7.0328895326049884E-2</v>
       </c>
       <c r="J53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>84.459637890799996</v>
       </c>
       <c r="K53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.040519703519999</v>
       </c>
       <c r="L53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>48677.898399999998</v>
       </c>
       <c r="M53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.662374773620001E-2</v>
       </c>
       <c r="N53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.16028511329880002</v>
       </c>
       <c r="O53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.3299461675467996E-2</v>
       </c>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.10349776354200764</v>
       </c>
       <c r="J54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>84.277960964800002</v>
       </c>
       <c r="K54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.027564697679999</v>
       </c>
       <c r="L54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>48625.523399999998</v>
       </c>
       <c r="M54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.12544340705820001</v>
       </c>
       <c r="N54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.25139822596979999</v>
       </c>
       <c r="O54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.9113073675952837E-2</v>
       </c>
     </row>
     <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.13963874159654643</v>
       </c>
       <c r="J55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>83.971626778000001</v>
       </c>
       <c r="K55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.005688104399999</v>
       </c>
       <c r="L55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>48537.078099999999</v>
       </c>
       <c r="M55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.1576609748742</v>
       </c>
       <c r="N55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.32105245812779998</v>
       </c>
       <c r="O55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.3198240307069278E-2</v>
       </c>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.17501442139748538</v>
       </c>
       <c r="J56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>85.500677703199997</v>
       </c>
       <c r="K56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.114497742000001</v>
       </c>
       <c r="L56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>48976.980499999998</v>
       </c>
       <c r="M56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.23616240523679999</v>
       </c>
       <c r="N56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.38607168952800003</v>
       </c>
       <c r="O56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.6919996871117933E-2</v>
       </c>
     </row>
     <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.20899098505616653</v>
       </c>
       <c r="J57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>86.537994345200005</v>
       </c>
       <c r="K57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.1877676996</v>
       </c>
       <c r="L57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>49273.199200000003</v>
       </c>
       <c r="M57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.29173944452520001</v>
       </c>
       <c r="N57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.44104813015200006</v>
       </c>
       <c r="O57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.943412295337787E-2</v>
       </c>
     </row>
     <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.24536181407201374</v>
       </c>
       <c r="J58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>87.571243078799995</v>
       </c>
       <c r="K58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.260307447839999</v>
       </c>
       <c r="L58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>49566.464800000002</v>
       </c>
       <c r="M58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.36606937865400002</v>
       </c>
       <c r="N58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.46673032866180003</v>
       </c>
       <c r="O58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.102895923797569E-2</v>
       </c>
     </row>
     <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.27920380237339065</v>
       </c>
       <c r="J59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>85.607822273599993</v>
       </c>
       <c r="K59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.122087993520001</v>
       </c>
       <c r="L59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>49007.664100000002</v>
       </c>
       <c r="M59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.40980699110820001</v>
       </c>
       <c r="N59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.46716914556479999</v>
       </c>
       <c r="O59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.0645080838507276E-2</v>
       </c>
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.31345285207088092</v>
       </c>
       <c r="J60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>84.517484927200002</v>
       </c>
       <c r="K60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.044643891360002</v>
       </c>
       <c r="L60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>48694.570299999999</v>
       </c>
       <c r="M60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.4638061577982</v>
       </c>
       <c r="N60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.50215194934380003</v>
       </c>
       <c r="O60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.2964545351474639E-2</v>
       </c>
     </row>
     <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.34914317895670477</v>
       </c>
       <c r="J61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>87.631985914400005</v>
       </c>
       <c r="K61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.264563004480001</v>
       </c>
       <c r="L61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>49583.667999999998</v>
       </c>
       <c r="M61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.52808258094060001</v>
       </c>
       <c r="N61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.54369245249340004</v>
       </c>
       <c r="O61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.5414641798855138E-2</v>
       </c>
     </row>
     <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>1.1651688432</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.384582216827485</v>
       </c>
       <c r="J62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>87.180999662800005</v>
       </c>
       <c r="K62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="22"/>
         <v>12.23296377888</v>
       </c>
       <c r="L62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>49455.917999999998</v>
       </c>
       <c r="M62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.60611165482139995</v>
       </c>
       <c r="N62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.58362185484119999</v>
       </c>
       <c r="O62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.7922613597245219E-2</v>
       </c>
     </row>
@@ -12542,6 +16027,7 @@
     <mergeCell ref="A20:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15162,8 +18648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCDE8DF-1029-7F4D-8118-F46BA73CA5E2}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="103" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15216,8 +18702,8 @@
         <v>-4</v>
       </c>
       <c r="B3" s="23">
-        <f>'40 ft '!N4*COS('40 ft '!I49)</f>
-        <v>-3.288033183603338E-2</v>
+        <f>'40 ft '!N4*COS('40 ft '!I49)-'40 ft '!M4*SIN('40 ft '!I49)</f>
+        <v>-3.5055209576670285E-2</v>
       </c>
       <c r="C3" s="24">
         <f>0.5*'40 ft '!F4*'40 ft '!K4^2</f>
@@ -15229,11 +18715,11 @@
       </c>
       <c r="E3" s="24">
         <f>B3/(C3*D3)</f>
-        <v>-0.27143972875223527</v>
+        <v>-0.28939417723322036</v>
       </c>
       <c r="F3" s="23">
-        <f>'100 ft'!N4*COS('100 ft'!I43)</f>
-        <v>-0.24854981485063155</v>
+        <f>'100 ft'!N4*COS('100 ft'!I43) - '100 ft'!M4*SIN('100 ft'!I43)</f>
+        <v>-0.24872120294048006</v>
       </c>
       <c r="G3" s="24">
         <f>0.5*'100 ft'!F4*'100 ft'!K4^2</f>
@@ -15245,7 +18731,7 @@
       </c>
       <c r="I3" s="25">
         <f>F3/(G3*H3)</f>
-        <v>-0.31611798844771083</v>
+        <v>-0.31633596832526323</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -15253,8 +18739,8 @@
         <v>-2</v>
       </c>
       <c r="B4" s="5">
-        <f>'40 ft '!N5*COS('40 ft '!I50)</f>
-        <v>-1.8126305279751634E-2</v>
+        <f>'40 ft '!N5*COS('40 ft '!I50)-'40 ft '!M5*SIN('40 ft '!I50)</f>
+        <v>-1.8709450928079421E-2</v>
       </c>
       <c r="C4">
         <f>0.5*'40 ft '!F5*'40 ft '!K5^2</f>
@@ -15266,11 +18752,11 @@
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E16" si="1">B4/(C4*D4)</f>
-        <v>-0.14563381589967425</v>
+        <v>-0.15031903578759775</v>
       </c>
       <c r="F4" s="5">
-        <f>'100 ft'!N5*COS('100 ft'!I44)</f>
-        <v>-0.14129250948952601</v>
+        <f>'100 ft'!N5*COS('100 ft'!I44) - '100 ft'!M5*SIN('100 ft'!I44)</f>
+        <v>-0.14054103935255152</v>
       </c>
       <c r="G4">
         <f>0.5*'100 ft'!F5*'100 ft'!K5^2</f>
@@ -15282,7 +18768,7 @@
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I16" si="3">F4/(G4*H4)</f>
-        <v>-0.17878953476078277</v>
+        <v>-0.17783863512242473</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -15290,8 +18776,8 @@
         <v>0</v>
       </c>
       <c r="B5" s="5">
-        <f>'40 ft '!N6*COS('40 ft '!I51)</f>
-        <v>-1.935799659083688E-3</v>
+        <f>'40 ft '!N6*COS('40 ft '!I51)-'40 ft '!M6*SIN('40 ft '!I51)</f>
+        <v>-1.9406243235993218E-3</v>
       </c>
       <c r="C5">
         <f>0.5*'40 ft '!F6*'40 ft '!K6^2</f>
@@ -15303,11 +18789,11 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>-1.5474573063018322E-2</v>
+        <v>-1.5513140909231844E-2</v>
       </c>
       <c r="F5" s="5">
-        <f>'100 ft'!N6*COS('100 ft'!I45)</f>
-        <v>-2.2864396098377319E-2</v>
+        <f>'100 ft'!N6*COS('100 ft'!I45) - '100 ft'!M6*SIN('100 ft'!I45)</f>
+        <v>-2.2838147868366378E-2</v>
       </c>
       <c r="G5">
         <f>0.5*'100 ft'!F6*'100 ft'!K6^2</f>
@@ -15319,7 +18805,7 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" si="3"/>
-        <v>-2.9193951454754972E-2</v>
+        <v>-2.916043692196716E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -15327,8 +18813,8 @@
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <f>'40 ft '!N7*COS('40 ft '!I52)</f>
-        <v>1.8643878586220804E-2</v>
+        <f>'40 ft '!N7*COS('40 ft '!I52)-'40 ft '!M7*SIN('40 ft '!I52)</f>
+        <v>1.8494667053136831E-2</v>
       </c>
       <c r="C6">
         <f>0.5*'40 ft '!F7*'40 ft '!K7^2</f>
@@ -15340,11 +18826,11 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.15157136900136134</v>
+        <v>0.15035830615954232</v>
       </c>
       <c r="F6" s="5">
-        <f>'100 ft'!N7*COS('100 ft'!I46)</f>
-        <v>7.6771179276560284E-2</v>
+        <f>'100 ft'!N7*COS('100 ft'!I46) - '100 ft'!M7*SIN('100 ft'!I46)</f>
+        <v>7.4956723569598788E-2</v>
       </c>
       <c r="G6">
         <f>0.5*'100 ft'!F7*'100 ft'!K7^2</f>
@@ -15356,7 +18842,7 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" si="3"/>
-        <v>9.7364577295097843E-2</v>
+        <v>9.5063404972440521E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -15364,8 +18850,8 @@
         <v>4</v>
       </c>
       <c r="B7" s="5">
-        <f>'40 ft '!N8*COS('40 ft '!I53)</f>
-        <v>3.5944463014471059E-2</v>
+        <f>'40 ft '!N8*COS('40 ft '!I53)-'40 ft '!M8*SIN('40 ft '!I53)</f>
+        <v>3.4733996294118268E-2</v>
       </c>
       <c r="C7">
         <f>0.5*'40 ft '!F8*'40 ft '!K8^2</f>
@@ -15377,11 +18863,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.29307647591665187</v>
+        <v>0.28320682449154755</v>
       </c>
       <c r="F7" s="5">
-        <f>'100 ft'!N8*COS('100 ft'!I47)</f>
-        <v>0.20615203405730101</v>
+        <f>'100 ft'!N8*COS('100 ft'!I47) - '100 ft'!M8*SIN('100 ft'!I47)</f>
+        <v>0.2013441002549694</v>
       </c>
       <c r="G7">
         <f>0.5*'100 ft'!F8*'100 ft'!K8^2</f>
@@ -15393,7 +18879,7 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" si="3"/>
-        <v>0.26243186468492968</v>
+        <v>0.25631135736712718</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -15401,8 +18887,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <f>'40 ft '!N9*COS('40 ft '!I54)</f>
-        <v>5.62141632668791E-2</v>
+        <f>'40 ft '!N9*COS('40 ft '!I54)-'40 ft '!M9*SIN('40 ft '!I54)</f>
+        <v>5.3300650497562552E-2</v>
       </c>
       <c r="C8">
         <f>0.5*'40 ft '!F9*'40 ft '!K9^2</f>
@@ -15414,11 +18900,11 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.45933524842991802</v>
+        <v>0.43552845252789207</v>
       </c>
       <c r="F8" s="5">
-        <f>'100 ft'!N9*COS('100 ft'!I48)</f>
-        <v>0.327655125821884</v>
+        <f>'100 ft'!N9*COS('100 ft'!I48) - '100 ft'!M9*SIN('100 ft'!I48)</f>
+        <v>0.31985372813375085</v>
       </c>
       <c r="G8">
         <f>0.5*'100 ft'!F9*'100 ft'!K9^2</f>
@@ -15430,7 +18916,7 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" si="3"/>
-        <v>0.4435786659959654</v>
+        <v>0.43301715388555428</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -15438,8 +18924,8 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <f>'40 ft '!N10*COS('40 ft '!I55)</f>
-        <v>7.1472958516250115E-2</v>
+        <f>'40 ft '!N10*COS('40 ft '!I55)-'40 ft '!M10*SIN('40 ft '!I55)</f>
+        <v>6.6539726129700688E-2</v>
       </c>
       <c r="C9">
         <f>0.5*'40 ft '!F10*'40 ft '!K10^2</f>
@@ -15451,11 +18937,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.58614770978618791</v>
+        <v>0.54569041061671864</v>
       </c>
       <c r="F9" s="5">
-        <f>'100 ft'!N10*COS('100 ft'!I49)</f>
-        <v>0.45303941523889657</v>
+        <f>'100 ft'!N10*COS('100 ft'!I49) - '100 ft'!M10*SIN('100 ft'!I49)</f>
+        <v>0.44142361061068347</v>
       </c>
       <c r="G9">
         <f>0.5*'100 ft'!F10*'100 ft'!K10^2</f>
@@ -15467,7 +18953,7 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="3"/>
-        <v>0.58136757882618684</v>
+        <v>0.56646147576832984</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -15475,8 +18961,8 @@
         <v>10</v>
       </c>
       <c r="B10" s="5">
-        <f>'40 ft '!N11*COS('40 ft '!I56)</f>
-        <v>8.5466561720833029E-2</v>
+        <f>'40 ft '!N11*COS('40 ft '!I56)-'40 ft '!M11*SIN('40 ft '!I56)</f>
+        <v>7.6222156022640458E-2</v>
       </c>
       <c r="C10">
         <f>0.5*'40 ft '!F11*'40 ft '!K11^2</f>
@@ -15488,11 +18974,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.68837459261317013</v>
+        <v>0.61391723901995776</v>
       </c>
       <c r="F10" s="5">
-        <f>'100 ft'!N11*COS('100 ft'!I50)</f>
-        <v>0.54865231414851878</v>
+        <f>'100 ft'!N11*COS('100 ft'!I50) - '100 ft'!M11*SIN('100 ft'!I50)</f>
+        <v>0.52947288968252348</v>
       </c>
       <c r="G10">
         <f>0.5*'100 ft'!F11*'100 ft'!K11^2</f>
@@ -15504,7 +18990,7 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="3"/>
-        <v>0.68424269483067712</v>
+        <v>0.66032339157888842</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -15512,8 +18998,8 @@
         <v>12</v>
       </c>
       <c r="B11" s="5">
-        <f>'40 ft '!N12*COS('40 ft '!I57)</f>
-        <v>9.6994136139688672E-2</v>
+        <f>'40 ft '!N12*COS('40 ft '!I57)-'40 ft '!M12*SIN('40 ft '!I57)</f>
+        <v>8.3386886038402164E-2</v>
       </c>
       <c r="C11">
         <f>0.5*'40 ft '!F12*'40 ft '!K12^2</f>
@@ -15525,11 +19011,11 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.77185650717739451</v>
+        <v>0.66357321342917963</v>
       </c>
       <c r="F11" s="5">
-        <f>'100 ft'!N12*COS('100 ft'!I51)</f>
-        <v>0.57047957989387366</v>
+        <f>'100 ft'!N12*COS('100 ft'!I51) - '100 ft'!M12*SIN('100 ft'!I51)</f>
+        <v>0.54560335482056144</v>
       </c>
       <c r="G11">
         <f>0.5*'100 ft'!F12*'100 ft'!K12^2</f>
@@ -15541,7 +19027,7 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="3"/>
-        <v>0.72763802323883042</v>
+        <v>0.69590877669619966</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -15549,8 +19035,8 @@
         <v>14</v>
       </c>
       <c r="B12" s="5">
-        <f>'40 ft '!N13*COS('40 ft '!I58)</f>
-        <v>0.10178262822102394</v>
+        <f>'40 ft '!N13*COS('40 ft '!I58)-'40 ft '!M13*SIN('40 ft '!I58)</f>
+        <v>8.1792400431305756E-2</v>
       </c>
       <c r="C12">
         <f>0.5*'40 ft '!F13*'40 ft '!K13^2</f>
@@ -15562,11 +19048,11 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.80040605484141392</v>
+        <v>0.64320536509498283</v>
       </c>
       <c r="F12" s="5">
-        <f>'100 ft'!N13*COS('100 ft'!I52)</f>
-        <v>0.59686190204546574</v>
+        <f>'100 ft'!N13*COS('100 ft'!I52) - '100 ft'!M13*SIN('100 ft'!I52)</f>
+        <v>0.56376752359403415</v>
       </c>
       <c r="G12">
         <f>0.5*'100 ft'!F13*'100 ft'!K13^2</f>
@@ -15578,7 +19064,7 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="3"/>
-        <v>0.75177612114800429</v>
+        <v>0.71009216816196474</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -15586,8 +19072,8 @@
         <v>16</v>
       </c>
       <c r="B13" s="5">
-        <f>'40 ft '!N14*COS('40 ft '!I59)</f>
-        <v>0.10095680937465631</v>
+        <f>'40 ft '!N14*COS('40 ft '!I59)-'40 ft '!M14*SIN('40 ft '!I59)</f>
+        <v>7.5567134243002529E-2</v>
       </c>
       <c r="C13">
         <f>0.5*'40 ft '!F14*'40 ft '!K14^2</f>
@@ -15599,11 +19085,11 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0.81211994884123773</v>
+        <v>0.60787952368581954</v>
       </c>
       <c r="F13" s="5">
-        <f>'100 ft'!N14*COS('100 ft'!I53)</f>
-        <v>0.61177961470264131</v>
+        <f>'100 ft'!N14*COS('100 ft'!I53) - '100 ft'!M14*SIN('100 ft'!I53)</f>
+        <v>0.56758516291488015</v>
       </c>
       <c r="G13">
         <f>0.5*'100 ft'!F14*'100 ft'!K14^2</f>
@@ -15615,7 +19101,7 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="3"/>
-        <v>0.74244503417056995</v>
+        <v>0.68881142089030012</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -15623,8 +19109,8 @@
         <v>18</v>
       </c>
       <c r="B14" s="5">
-        <f>'40 ft '!N15*COS('40 ft '!I60)</f>
-        <v>0.10738775983146587</v>
+        <f>'40 ft '!N15*COS('40 ft '!I60)-'40 ft '!M15*SIN('40 ft '!I60)</f>
+        <v>7.5237293785840084E-2</v>
       </c>
       <c r="C14">
         <f>0.5*'40 ft '!F15*'40 ft '!K15^2</f>
@@ -15636,11 +19122,11 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.87499642885372675</v>
+        <v>0.61303414357973329</v>
       </c>
       <c r="F14" s="5">
-        <f>'100 ft'!N15*COS('100 ft'!I54)</f>
-        <v>0.61295187783143001</v>
+        <f>'100 ft'!N15*COS('100 ft'!I54) - '100 ft'!M15*SIN('100 ft'!I54)</f>
+        <v>0.56106586145192949</v>
       </c>
       <c r="G14">
         <f>0.5*'100 ft'!F15*'100 ft'!K15^2</f>
@@ -15652,7 +19138,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="3"/>
-        <v>0.77300083134584929</v>
+        <v>0.70756676507220218</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -15660,8 +19146,8 @@
         <v>20</v>
       </c>
       <c r="B15" s="5">
-        <f>'40 ft '!N16*COS('40 ft '!I61)</f>
-        <v>0.11485254877695543</v>
+        <f>'40 ft '!N16*COS('40 ft '!I61)-'40 ft '!M16*SIN('40 ft '!I61)</f>
+        <v>7.4240067235690224E-2</v>
       </c>
       <c r="C15">
         <f>0.5*'40 ft '!F16*'40 ft '!K16^2</f>
@@ -15673,11 +19159,11 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.90255963445108567</v>
+        <v>0.58340967318013071</v>
       </c>
       <c r="F15" s="5">
-        <f>'100 ft'!N16*COS('100 ft'!I55)</f>
-        <v>0.62158940983959998</v>
+        <f>'100 ft'!N16*COS('100 ft'!I55) - '100 ft'!M16*SIN('100 ft'!I55)</f>
+        <v>0.55899521125931817</v>
       </c>
       <c r="G15">
         <f>0.5*'100 ft'!F16*'100 ft'!K16^2</f>
@@ -15689,7 +19175,7 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="3"/>
-        <v>0.78631707477058721</v>
+        <v>0.70713476190274527</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -15697,8 +19183,8 @@
         <v>22</v>
       </c>
       <c r="B16" s="7">
-        <f>'40 ft '!N17*COS('40 ft '!I62)</f>
-        <v>0.12161973659958972</v>
+        <f>'40 ft '!N17*COS('40 ft '!I62)-'40 ft '!M17*SIN('40 ft '!I62)</f>
+        <v>7.0499049428713309E-2</v>
       </c>
       <c r="C16" s="8">
         <f>0.5*'40 ft '!F17*'40 ft '!K17^2</f>
@@ -15710,11 +19196,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
-        <v>0.9606829989527168</v>
+        <v>0.55687703428820445</v>
       </c>
       <c r="F16" s="7">
-        <f>'100 ft'!N17*COS('100 ft'!I56)</f>
-        <v>0.6579782138869561</v>
+        <f>'100 ft'!N17*COS('100 ft'!I56) - '100 ft'!M17*SIN('100 ft'!I56)</f>
+        <v>0.58325938820631429</v>
       </c>
       <c r="G16" s="8">
         <f>0.5*'100 ft'!F17*'100 ft'!K17^2</f>
@@ -15726,7 +19212,7 @@
       </c>
       <c r="I16" s="9">
         <f t="shared" si="3"/>
-        <v>0.84486073040376986</v>
+        <v>0.74891986137933653</v>
       </c>
     </row>
   </sheetData>
@@ -15744,7 +19230,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15796,9 +19282,9 @@
       <c r="A3" s="19">
         <v>-4</v>
       </c>
-      <c r="B3">
-        <f>'40 ft '!N4*SIN('40 ft '!I49)</f>
-        <v>2.3401091005184975E-3</v>
+      <c r="B3" s="5">
+        <f>'40 ft '!N4*SIN('40 ft '!I49) + '40 ft '!M4*COS('40 ft '!I49)</f>
+        <v>-2.821859510652016E-2</v>
       </c>
       <c r="C3" s="24">
         <f>0.5*'40 ft '!F4*'40 ft '!K4^2</f>
@@ -15810,11 +19296,11 @@
       </c>
       <c r="E3" s="25">
         <f>B3/(C3*D3)</f>
-        <v>1.9318496621718018E-2</v>
+        <v>-0.2329553071325399</v>
       </c>
       <c r="F3" s="5">
-        <f>'100 ft'!N4*SIN('100 ft'!I43)</f>
-        <v>1.7144341628560544E-2</v>
+        <f>'100 ft'!N4*SIN('100 ft'!I43) + '100 ft'!M4*COS('100 ft'!I43)</f>
+        <v>1.4659645574179227E-2</v>
       </c>
       <c r="G3">
         <f>0.5*'100 ft'!F4*'100 ft'!K4^2</f>
@@ -15826,16 +19312,16 @@
       </c>
       <c r="I3" s="6">
         <f>F3/(G3*H3)</f>
-        <v>2.1805024446056791E-2</v>
+        <v>1.8644864704690602E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>-2</v>
       </c>
-      <c r="B4">
-        <f>'40 ft '!N5*SIN('40 ft '!I50)</f>
-        <v>6.2566230128402391E-4</v>
+      <c r="B4" s="5">
+        <f>'40 ft '!N5*SIN('40 ft '!I50) + '40 ft '!M5*COS('40 ft '!I50)</f>
+        <v>-1.6268876529735788E-2</v>
       </c>
       <c r="C4">
         <f>0.5*'40 ft '!F5*'40 ft '!K5^2</f>
@@ -15847,11 +19333,11 @@
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:E16" si="1">B4/(C4*D4)</f>
-        <v>5.0268152827784964E-3</v>
+        <v>-0.13071050789775382</v>
       </c>
       <c r="F4" s="5">
-        <f>'100 ft'!N5*SIN('100 ft'!I44)</f>
-        <v>5.0492198845169031E-3</v>
+        <f>'100 ft'!N5*SIN('100 ft'!I44) + '100 ft'!M5*COS('100 ft'!I44)</f>
+        <v>2.6077636924770685E-2</v>
       </c>
       <c r="G4">
         <f>0.5*'100 ft'!F5*'100 ft'!K5^2</f>
@@ -15863,16 +19349,16 @@
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I16" si="3">F4/(G4*H4)</f>
-        <v>6.3892111288786392E-3</v>
+        <v>3.2998271389510454E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>0</v>
       </c>
-      <c r="B5">
-        <f>'40 ft '!N6*SIN('40 ft '!I51)</f>
-        <v>1.1488652999438818E-6</v>
+      <c r="B5" s="5">
+        <f>'40 ft '!N6*SIN('40 ft '!I51) + '40 ft '!M6*COS('40 ft '!I51)</f>
+        <v>-8.1282497030206128E-3</v>
       </c>
       <c r="C5">
         <f>0.5*'40 ft '!F6*'40 ft '!K6^2</f>
@@ -15884,11 +19370,11 @@
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>9.1839049253492387E-6</v>
+        <v>-6.4976348824954372E-2</v>
       </c>
       <c r="F5" s="5">
-        <f>'100 ft'!N6*SIN('100 ft'!I45)</f>
-        <v>1.3357264240617943E-5</v>
+        <f>'100 ft'!N6*SIN('100 ft'!I45) + '100 ft'!M6*COS('100 ft'!I45)</f>
+        <v>4.4943959597199851E-2</v>
       </c>
       <c r="G5">
         <f>0.5*'100 ft'!F6*'100 ft'!K6^2</f>
@@ -15900,16 +19386,16 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" si="3"/>
-        <v>1.7054958378568745E-5</v>
+        <v>5.7385804944056241E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6">
-        <f>'40 ft '!N7*SIN('40 ft '!I52)</f>
-        <v>6.5725114975732587E-4</v>
+      <c r="B6" s="5">
+        <f>'40 ft '!N7*SIN('40 ft '!I52) + '40 ft '!M7*COS('40 ft '!I52)</f>
+        <v>4.8898518953149235E-3</v>
       </c>
       <c r="C6">
         <f>0.5*'40 ft '!F7*'40 ft '!K7^2</f>
@@ -15921,11 +19407,11 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>5.3433332600687222E-3</v>
+        <v>3.9753613635660406E-2</v>
       </c>
       <c r="F6" s="5">
-        <f>'100 ft'!N7*SIN('100 ft'!I46)</f>
-        <v>2.5731654999903166E-3</v>
+        <f>'100 ft'!N7*SIN('100 ft'!I46) + '100 ft'!M7*COS('100 ft'!I46)</f>
+        <v>5.6708006173488888E-2</v>
       </c>
       <c r="G6">
         <f>0.5*'100 ft'!F7*'100 ft'!K7^2</f>
@@ -15937,16 +19423,16 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" si="3"/>
-        <v>3.2634013646496048E-3</v>
+        <v>7.1919581050584686E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>4</v>
       </c>
-      <c r="B7">
-        <f>'40 ft '!N8*SIN('40 ft '!I53)</f>
-        <v>2.532110489872477E-3</v>
+      <c r="B7" s="5">
+        <f>'40 ft '!N8*SIN('40 ft '!I53) + '40 ft '!M8*COS('40 ft '!I53)</f>
+        <v>1.9715237542973676E-2</v>
       </c>
       <c r="C7">
         <f>0.5*'40 ft '!F8*'40 ft '!K8^2</f>
@@ -15958,11 +19444,11 @@
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>2.0645795117446766E-2</v>
+        <v>0.16074999753447902</v>
       </c>
       <c r="F7" s="5">
-        <f>'100 ft'!N8*SIN('100 ft'!I47)</f>
-        <v>1.4724681813550338E-2</v>
+        <f>'100 ft'!N8*SIN('100 ft'!I47) + '100 ft'!M8*COS('100 ft'!I47)</f>
+        <v>8.2037873739463335E-2</v>
       </c>
       <c r="G7">
         <f>0.5*'100 ft'!F8*'100 ft'!K8^2</f>
@@ -15974,16 +19460,16 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" si="3"/>
-        <v>1.8744543185774273E-2</v>
+        <v>0.10443434273488661</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8">
-        <f>'40 ft '!N9*SIN('40 ft '!I54)</f>
-        <v>5.8389034443772332E-3</v>
+      <c r="B8" s="5">
+        <f>'40 ft '!N9*SIN('40 ft '!I54) + '40 ft '!M9*COS('40 ft '!I54)</f>
+        <v>3.3888807686622509E-2</v>
       </c>
       <c r="C8">
         <f>0.5*'40 ft '!F9*'40 ft '!K9^2</f>
@@ -15995,11 +19481,11 @@
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>4.7710648141258381E-2</v>
+        <v>0.27691106641268837</v>
       </c>
       <c r="F8" s="5">
-        <f>'100 ft'!N9*SIN('100 ft'!I48)</f>
-        <v>3.411672026962357E-2</v>
+        <f>'100 ft'!N9*SIN('100 ft'!I48) + '100 ft'!M9*COS('100 ft'!I48)</f>
+        <v>0.1090409193394781</v>
       </c>
       <c r="G8">
         <f>0.5*'100 ft'!F9*'100 ft'!K9^2</f>
@@ -16011,16 +19497,16 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" si="3"/>
-        <v>4.6187128089013332E-2</v>
+        <v>0.14761931594463357</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9">
-        <f>'40 ft '!N10*SIN('40 ft '!I55)</f>
-        <v>1.0045773124776915E-2</v>
+      <c r="B9" s="5">
+        <f>'40 ft '!N10*SIN('40 ft '!I55) + '40 ft '!M10*COS('40 ft '!I55)</f>
+        <v>4.5144387172234693E-2</v>
       </c>
       <c r="C9">
         <f>0.5*'40 ft '!F10*'40 ft '!K10^2</f>
@@ -16032,11 +19518,11 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>8.2385101055819004E-2</v>
+        <v>0.37022784141067955</v>
       </c>
       <c r="F9" s="5">
-        <f>'100 ft'!N10*SIN('100 ft'!I49)</f>
-        <v>6.3171809286272279E-2</v>
+        <f>'100 ft'!N10*SIN('100 ft'!I49) + '100 ft'!M10*COS('100 ft'!I49)</f>
+        <v>0.14647506426267332</v>
       </c>
       <c r="G9">
         <f>0.5*'100 ft'!F10*'100 ft'!K10^2</f>
@@ -16048,16 +19534,16 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="3"/>
-        <v>8.1065886497896381E-2</v>
+        <v>0.1879656617159815</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>10</v>
       </c>
-      <c r="B10">
-        <f>'40 ft '!N11*SIN('40 ft '!I56)</f>
-        <v>1.5112495670108184E-2</v>
+      <c r="B10" s="5">
+        <f>'40 ft '!N11*SIN('40 ft '!I56) + '40 ft '!M11*COS('40 ft '!I56)</f>
+        <v>6.7392912314974587E-2</v>
       </c>
       <c r="C10">
         <f>0.5*'40 ft '!F11*'40 ft '!K11^2</f>
@@ -16069,11 +19555,11 @@
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0.12172079747702319</v>
+        <v>0.54280373078969302</v>
       </c>
       <c r="F10" s="5">
-        <f>'100 ft'!N11*SIN('100 ft'!I50)</f>
-        <v>9.706744683532173E-2</v>
+        <f>'100 ft'!N11*SIN('100 ft'!I50) + '100 ft'!M11*COS('100 ft'!I50)</f>
+        <v>0.20547490948505437</v>
       </c>
       <c r="G10">
         <f>0.5*'100 ft'!F11*'100 ft'!K11^2</f>
@@ -16085,16 +19571,16 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="3"/>
-        <v>0.12105606718530111</v>
+        <v>0.25625464827272093</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>12</v>
       </c>
-      <c r="B11">
-        <f>'40 ft '!N12*SIN('40 ft '!I57)</f>
-        <v>2.0571274561279388E-2</v>
+      <c r="B11" s="5">
+        <f>'40 ft '!N12*SIN('40 ft '!I57) + '40 ft '!M12*COS('40 ft '!I57)</f>
+        <v>8.4729840180506236E-2</v>
       </c>
       <c r="C11">
         <f>0.5*'40 ft '!F12*'40 ft '!K12^2</f>
@@ -16106,11 +19592,11 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>0.1637013613708469</v>
+        <v>0.67426012641875477</v>
       </c>
       <c r="F11" s="5">
-        <f>'100 ft'!N12*SIN('100 ft'!I51)</f>
-        <v>0.12104345545073389</v>
+        <f>'100 ft'!N12*SIN('100 ft'!I51) + '100 ft'!M12*COS('100 ft'!I51)</f>
+        <v>0.23828546887742966</v>
       </c>
       <c r="G11">
         <f>0.5*'100 ft'!F12*'100 ft'!K12^2</f>
@@ -16122,16 +19608,16 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="3"/>
-        <v>0.15438908552441821</v>
+        <v>0.30392948959323957</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>14</v>
       </c>
-      <c r="B12">
-        <f>'40 ft '!N13*SIN('40 ft '!I58)</f>
-        <v>2.5487096518766583E-2</v>
+      <c r="B12" s="5">
+        <f>'40 ft '!N13*SIN('40 ft '!I58) + '40 ft '!M13*COS('40 ft '!I58)</f>
+        <v>0.10531799925326646</v>
       </c>
       <c r="C12">
         <f>0.5*'40 ft '!F13*'40 ft '!K13^2</f>
@@ -16143,11 +19629,11 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0.2004273885485551</v>
+        <v>0.82820777729421802</v>
       </c>
       <c r="F12" s="5">
-        <f>'100 ft'!N13*SIN('100 ft'!I52)</f>
-        <v>0.1479337930897936</v>
+        <f>'100 ft'!N13*SIN('100 ft'!I52) + '100 ft'!M13*COS('100 ft'!I52)</f>
+        <v>0.28145821139186677</v>
       </c>
       <c r="G12">
         <f>0.5*'100 ft'!F13*'100 ft'!K13^2</f>
@@ -16159,16 +19645,16 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="3"/>
-        <v>0.18632968995780344</v>
+        <v>0.35451008298618897</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>16</v>
       </c>
-      <c r="B13">
-        <f>'40 ft '!N14*SIN('40 ft '!I59)</f>
-        <v>2.8943559028476545E-2</v>
+      <c r="B13" s="5">
+        <f>'40 ft '!N14*SIN('40 ft '!I59) + '40 ft '!M14*COS('40 ft '!I59)</f>
+        <v>0.1175042156439578</v>
       </c>
       <c r="C13">
         <f>0.5*'40 ft '!F14*'40 ft '!K14^2</f>
@@ -16180,11 +19666,11 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>0.2328286900416888</v>
+        <v>0.94523111604353471</v>
       </c>
       <c r="F13" s="5">
-        <f>'100 ft'!N14*SIN('100 ft'!I53)</f>
-        <v>0.17522752524319871</v>
+        <f>'100 ft'!N14*SIN('100 ft'!I53) + '100 ft'!M14*COS('100 ft'!I53)</f>
+        <v>0.32952557087949885</v>
       </c>
       <c r="G13">
         <f>0.5*'100 ft'!F14*'100 ft'!K14^2</f>
@@ -16196,16 +19682,16 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="3"/>
-        <v>0.21265305812787713</v>
+        <v>0.39990646607377028</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>18</v>
       </c>
-      <c r="B14">
-        <f>'40 ft '!N15*SIN('40 ft '!I60)</f>
-        <v>3.4808548626788623E-2</v>
+      <c r="B14" s="5">
+        <f>'40 ft '!N15*SIN('40 ft '!I60) + '40 ft '!M15*COS('40 ft '!I60)</f>
+        <v>0.13399586502987096</v>
       </c>
       <c r="C14">
         <f>0.5*'40 ft '!F15*'40 ft '!K15^2</f>
@@ -16217,11 +19703,11 @@
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>0.28362036595065443</v>
+        <v>1.0917995083081027</v>
       </c>
       <c r="F14" s="5">
-        <f>'100 ft'!N15*SIN('100 ft'!I54)</f>
-        <v>0.19814281067788872</v>
+        <f>'100 ft'!N15*SIN('100 ft'!I54) + '100 ft'!M15*COS('100 ft'!I54)</f>
+        <v>0.3586514411157038</v>
       </c>
       <c r="G14">
         <f>0.5*'100 ft'!F15*'100 ft'!K15^2</f>
@@ -16233,16 +19719,16 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="3"/>
-        <v>0.24988023190514397</v>
+        <v>0.45229955592381771</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>20</v>
       </c>
-      <c r="B15">
-        <f>'40 ft '!N16*SIN('40 ft '!I61)</f>
-        <v>4.1812967304629023E-2</v>
+      <c r="B15" s="5">
+        <f>'40 ft '!N16*SIN('40 ft '!I61) + '40 ft '!M16*COS('40 ft '!I61)</f>
+        <v>0.15336800197099132</v>
       </c>
       <c r="C15">
         <f>0.5*'40 ft '!F16*'40 ft '!K16^2</f>
@@ -16254,11 +19740,11 @@
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>0.32858388331520633</v>
+        <v>1.2052302649743662</v>
       </c>
       <c r="F15" s="5">
-        <f>'100 ft'!N16*SIN('100 ft'!I55)</f>
-        <v>0.2268686108235165</v>
+        <f>'100 ft'!N16*SIN('100 ft'!I55) + '100 ft'!M16*COS('100 ft'!I55)</f>
+        <v>0.39836827670354857</v>
       </c>
       <c r="G15">
         <f>0.5*'100 ft'!F16*'100 ft'!K16^2</f>
@@ -16270,16 +19756,16 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="3"/>
-        <v>0.28699115460485025</v>
+        <v>0.50394001741401317</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>22</v>
       </c>
-      <c r="B16" s="8">
-        <f>'40 ft '!N17*SIN('40 ft '!I62)</f>
-        <v>4.9223851793800281E-2</v>
+      <c r="B16" s="5">
+        <f>'40 ft '!N17*SIN('40 ft '!I62) + '40 ft '!M17*COS('40 ft '!I62)</f>
+        <v>0.17553019073201151</v>
       </c>
       <c r="C16" s="8">
         <f>0.5*'40 ft '!F17*'40 ft '!K17^2</f>
@@ -16291,11 +19777,11 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" si="1"/>
-        <v>0.38882272633890619</v>
-      </c>
-      <c r="F16" s="8">
-        <f>'100 ft'!N17*SIN('100 ft'!I56)</f>
-        <v>0.26642876982280378</v>
+        <v>1.3865255324006356</v>
+      </c>
+      <c r="F16" s="5">
+        <f>'100 ft'!N17*SIN('100 ft'!I56) + '100 ft'!M17*COS('100 ft'!I56)</f>
+        <v>0.45095598697648076</v>
       </c>
       <c r="G16" s="8">
         <f>0.5*'100 ft'!F17*'100 ft'!K17^2</f>
@@ -16307,7 +19793,7 @@
       </c>
       <c r="I16" s="9">
         <f t="shared" si="3"/>
-        <v>0.34210130415008594</v>
+        <v>0.57903893547812701</v>
       </c>
     </row>
   </sheetData>
@@ -16322,10 +19808,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31448C-E105-E445-85D7-EC0F84352834}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16895,10 +20381,43 @@
         <v>0.83141874396877025</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>2.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="B21">
+        <f>2.5/12</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C21">
+        <f>B21/4</f>
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16909,8 +20428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5888F813-8986-9340-B4EC-4793D01DF972}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16986,746 +20505,746 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>-4</v>
       </c>
       <c r="B3" s="23">
         <f>'Cl calculation'!B3</f>
-        <v>-3.288033183603338E-2</v>
+        <v>-3.5055209576670285E-2</v>
       </c>
       <c r="C3" s="25">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
+        <f>'CD calculation'!B3</f>
+        <v>-2.821859510652016E-2</v>
       </c>
       <c r="D3" s="23">
         <f>'Cl calculation'!F3</f>
-        <v>-0.24854981485063155</v>
+        <v>-0.24872120294048006</v>
       </c>
       <c r="E3" s="25">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
+        <f>'CD calculation'!F3</f>
+        <v>1.4659645574179227E-2</v>
       </c>
       <c r="F3" s="23">
         <f>'Cl calculation'!E3</f>
-        <v>-0.27143972875223527</v>
+        <v>-0.28939417723322036</v>
       </c>
       <c r="G3" s="25">
         <f>'CD calculation'!E3</f>
-        <v>1.9318496621718018E-2</v>
+        <v>-0.2329553071325399</v>
       </c>
       <c r="H3" s="24">
         <f>'Cl calculation'!I3</f>
-        <v>-0.31611798844771083</v>
+        <v>-0.31633596832526323</v>
       </c>
       <c r="I3" s="16">
         <f>'CD calculation'!I3</f>
-        <v>2.1805024446056791E-2</v>
+        <v>1.8644864704690602E-2</v>
       </c>
       <c r="J3" s="24">
         <f>B3/C3</f>
-        <v>-14.050768756357595</v>
+        <v>1.2422733819434713</v>
       </c>
       <c r="K3" s="16">
         <f>D3/E3</f>
-        <v>-14.497483790020581</v>
+        <v>-16.966385829856982</v>
       </c>
       <c r="L3" s="5">
         <f>F3/G3</f>
-        <v>-14.050768756357595</v>
+        <v>1.2422733819434713</v>
       </c>
       <c r="M3" s="6">
         <f>H3/I3</f>
-        <v>-14.497483790020581</v>
+        <v>-16.966385829856982</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>-2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="23">
         <f>'Cl calculation'!B4</f>
-        <v>-1.8126305279751634E-2</v>
-      </c>
-      <c r="C4" s="6">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D4" s="5">
+        <v>-1.8709450928079421E-2</v>
+      </c>
+      <c r="C4" s="25">
+        <f>'CD calculation'!B4</f>
+        <v>-1.6268876529735788E-2</v>
+      </c>
+      <c r="D4" s="23">
         <f>'Cl calculation'!F4</f>
-        <v>-0.14129250948952601</v>
-      </c>
-      <c r="E4" s="6">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F4" s="5">
+        <v>-0.14054103935255152</v>
+      </c>
+      <c r="E4" s="25">
+        <f>'CD calculation'!F4</f>
+        <v>2.6077636924770685E-2</v>
+      </c>
+      <c r="F4" s="23">
         <f>'Cl calculation'!E4</f>
-        <v>-0.14563381589967425</v>
-      </c>
-      <c r="G4" s="6">
+        <v>-0.15031903578759775</v>
+      </c>
+      <c r="G4" s="25">
         <f>'CD calculation'!E4</f>
-        <v>5.0268152827784964E-3</v>
-      </c>
-      <c r="H4">
+        <v>-0.13071050789775382</v>
+      </c>
+      <c r="H4" s="24">
         <f>'Cl calculation'!I4</f>
-        <v>-0.17878953476078277</v>
-      </c>
-      <c r="I4" s="17">
+        <v>-0.17783863512242473</v>
+      </c>
+      <c r="I4" s="16">
         <f>'CD calculation'!I4</f>
-        <v>6.3892111288786392E-3</v>
+        <v>3.2998271389510454E-2</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J16" si="0">B4/C4</f>
-        <v>-7.7459231604780268</v>
+        <v>1.1500149315094266</v>
       </c>
       <c r="K4" s="17">
         <f t="shared" ref="K4:K16" si="1">D4/E4</f>
-        <v>-8.2413493939101503</v>
+        <v>-5.3893318538787574</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ref="L4:L16" si="2">F4/G4</f>
-        <v>-28.971387987659924</v>
+        <v>1.1500149315094268</v>
       </c>
       <c r="M4" s="6">
         <f t="shared" ref="M4:M16" si="3">H4/I4</f>
-        <v>-27.983037522843897</v>
+        <v>-5.3893318538787574</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="23">
         <f>'Cl calculation'!B5</f>
-        <v>-1.935799659083688E-3</v>
-      </c>
-      <c r="C5" s="6">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D5" s="5">
+        <v>-1.9406243235993218E-3</v>
+      </c>
+      <c r="C5" s="25">
+        <f>'CD calculation'!B5</f>
+        <v>-8.1282497030206128E-3</v>
+      </c>
+      <c r="D5" s="23">
         <f>'Cl calculation'!F5</f>
-        <v>-2.2864396098377319E-2</v>
-      </c>
-      <c r="E5" s="6">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F5" s="5">
+        <v>-2.2838147868366378E-2</v>
+      </c>
+      <c r="E5" s="25">
+        <f>'CD calculation'!F5</f>
+        <v>4.4943959597199851E-2</v>
+      </c>
+      <c r="F5" s="23">
         <f>'Cl calculation'!E5</f>
-        <v>-1.5474573063018322E-2</v>
-      </c>
-      <c r="G5" s="6">
+        <v>-1.5513140909231844E-2</v>
+      </c>
+      <c r="G5" s="25">
         <f>'CD calculation'!E5</f>
-        <v>9.1839049253492387E-6</v>
-      </c>
-      <c r="H5">
+        <v>-6.4976348824954372E-2</v>
+      </c>
+      <c r="H5" s="24">
         <f>'Cl calculation'!I5</f>
-        <v>-2.9193951454754972E-2</v>
-      </c>
-      <c r="I5" s="17">
+        <v>-2.916043692196716E-2</v>
+      </c>
+      <c r="I5" s="16">
         <f>'CD calculation'!I5</f>
-        <v>1.7054958378568745E-5</v>
+        <v>5.7385804944056241E-2</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>-0.82722624285114454</v>
+        <v>0.2387505790918491</v>
       </c>
       <c r="K5" s="17">
         <f t="shared" si="1"/>
-        <v>-1.3336409524345809</v>
+        <v>-0.50814721428748499</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="2"/>
-        <v>-1684.9666006782911</v>
+        <v>0.23875057909184907</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="3"/>
-        <v>-1711.7574142801827</v>
+        <v>-0.50814721428748499</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="23">
         <f>'Cl calculation'!B6</f>
-        <v>1.8643878586220804E-2</v>
-      </c>
-      <c r="C6" s="6">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D6" s="5">
+        <v>1.8494667053136831E-2</v>
+      </c>
+      <c r="C6" s="25">
+        <f>'CD calculation'!B6</f>
+        <v>4.8898518953149235E-3</v>
+      </c>
+      <c r="D6" s="23">
         <f>'Cl calculation'!F6</f>
-        <v>7.6771179276560284E-2</v>
-      </c>
-      <c r="E6" s="6">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F6" s="5">
+        <v>7.4956723569598788E-2</v>
+      </c>
+      <c r="E6" s="25">
+        <f>'CD calculation'!F6</f>
+        <v>5.6708006173488888E-2</v>
+      </c>
+      <c r="F6" s="23">
         <f>'Cl calculation'!E6</f>
-        <v>0.15157136900136134</v>
-      </c>
-      <c r="G6" s="6">
+        <v>0.15035830615954232</v>
+      </c>
+      <c r="G6" s="25">
         <f>'CD calculation'!E6</f>
-        <v>5.3433332600687222E-3</v>
-      </c>
-      <c r="H6">
+        <v>3.9753613635660406E-2</v>
+      </c>
+      <c r="H6" s="24">
         <f>'Cl calculation'!I6</f>
-        <v>9.7364577295097843E-2</v>
-      </c>
-      <c r="I6" s="17">
+        <v>9.5063404972440521E-2</v>
+      </c>
+      <c r="I6" s="16">
         <f>'CD calculation'!I6</f>
-        <v>3.2634013646496048E-3</v>
+        <v>7.1919581050584686E-2</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>7.9670980220921681</v>
+        <v>3.782255055793609</v>
       </c>
       <c r="K6" s="17">
         <f t="shared" si="1"/>
-        <v>4.4779310246984423</v>
+        <v>1.3218014285369324</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="2"/>
-        <v>28.366444993066356</v>
+        <v>3.782255055793609</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="3"/>
-        <v>29.835305687430203</v>
+        <v>1.3218014285369322</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="23">
         <f>'Cl calculation'!B7</f>
-        <v>3.5944463014471059E-2</v>
-      </c>
-      <c r="C7" s="6">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D7" s="5">
+        <v>3.4733996294118268E-2</v>
+      </c>
+      <c r="C7" s="25">
+        <f>'CD calculation'!B7</f>
+        <v>1.9715237542973676E-2</v>
+      </c>
+      <c r="D7" s="23">
         <f>'Cl calculation'!F7</f>
-        <v>0.20615203405730101</v>
-      </c>
-      <c r="E7" s="6">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F7" s="5">
+        <v>0.2013441002549694</v>
+      </c>
+      <c r="E7" s="25">
+        <f>'CD calculation'!F7</f>
+        <v>8.2037873739463335E-2</v>
+      </c>
+      <c r="F7" s="23">
         <f>'Cl calculation'!E7</f>
-        <v>0.29307647591665187</v>
-      </c>
-      <c r="G7" s="6">
+        <v>0.28320682449154755</v>
+      </c>
+      <c r="G7" s="25">
         <f>'CD calculation'!E7</f>
-        <v>2.0645795117446766E-2</v>
-      </c>
-      <c r="H7">
+        <v>0.16074999753447902</v>
+      </c>
+      <c r="H7" s="24">
         <f>'Cl calculation'!I7</f>
-        <v>0.26243186468492968</v>
-      </c>
-      <c r="I7" s="17">
+        <v>0.25631135736712718</v>
+      </c>
+      <c r="I7" s="16">
         <f>'CD calculation'!I7</f>
-        <v>1.8744543185774273E-2</v>
+        <v>0.10443434273488661</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>15.360165475407472</v>
+        <v>1.7617843162380324</v>
       </c>
       <c r="K7" s="17">
         <f t="shared" si="1"/>
-        <v>12.024494058953826</v>
+        <v>2.4542822854526913</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="2"/>
-        <v>14.195455987499706</v>
+        <v>1.7617843162380327</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="3"/>
-        <v>14.000440666065211</v>
+        <v>2.4542822854526913</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="23">
         <f>'Cl calculation'!B8</f>
-        <v>5.62141632668791E-2</v>
-      </c>
-      <c r="C8" s="6">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D8" s="5">
+        <v>5.3300650497562552E-2</v>
+      </c>
+      <c r="C8" s="25">
+        <f>'CD calculation'!B8</f>
+        <v>3.3888807686622509E-2</v>
+      </c>
+      <c r="D8" s="23">
         <f>'Cl calculation'!F8</f>
-        <v>0.327655125821884</v>
-      </c>
-      <c r="E8" s="6">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F8" s="5">
+        <v>0.31985372813375085</v>
+      </c>
+      <c r="E8" s="25">
+        <f>'CD calculation'!F8</f>
+        <v>0.1090409193394781</v>
+      </c>
+      <c r="F8" s="23">
         <f>'Cl calculation'!E8</f>
-        <v>0.45933524842991802</v>
-      </c>
-      <c r="G8" s="6">
+        <v>0.43552845252789207</v>
+      </c>
+      <c r="G8" s="25">
         <f>'CD calculation'!E8</f>
-        <v>4.7710648141258381E-2</v>
-      </c>
-      <c r="H8">
+        <v>0.27691106641268837</v>
+      </c>
+      <c r="H8" s="24">
         <f>'Cl calculation'!I8</f>
-        <v>0.4435786659959654</v>
-      </c>
-      <c r="I8" s="17">
+        <v>0.43301715388555428</v>
+      </c>
+      <c r="I8" s="16">
         <f>'CD calculation'!I8</f>
-        <v>4.6187128089013332E-2</v>
+        <v>0.14761931594463357</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>24.022026688594877</v>
+        <v>1.5728098489166618</v>
       </c>
       <c r="K8" s="17">
         <f t="shared" si="1"/>
-        <v>19.111560707355913</v>
+        <v>2.9333366782973216</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="2"/>
-        <v>9.6275206127980084</v>
+        <v>1.5728098489166618</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="3"/>
-        <v>9.6039456088520208</v>
+        <v>2.9333366782973216</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="23">
         <f>'Cl calculation'!B9</f>
-        <v>7.1472958516250115E-2</v>
-      </c>
-      <c r="C9" s="6">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D9" s="5">
+        <v>6.6539726129700688E-2</v>
+      </c>
+      <c r="C9" s="25">
+        <f>'CD calculation'!B9</f>
+        <v>4.5144387172234693E-2</v>
+      </c>
+      <c r="D9" s="23">
         <f>'Cl calculation'!F9</f>
-        <v>0.45303941523889657</v>
-      </c>
-      <c r="E9" s="6">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F9" s="5">
+        <v>0.44142361061068347</v>
+      </c>
+      <c r="E9" s="25">
+        <f>'CD calculation'!F9</f>
+        <v>0.14647506426267332</v>
+      </c>
+      <c r="F9" s="23">
         <f>'Cl calculation'!E9</f>
-        <v>0.58614770978618791</v>
-      </c>
-      <c r="G9" s="6">
+        <v>0.54569041061671864</v>
+      </c>
+      <c r="G9" s="25">
         <f>'CD calculation'!E9</f>
-        <v>8.2385101055819004E-2</v>
-      </c>
-      <c r="H9">
+        <v>0.37022784141067955</v>
+      </c>
+      <c r="H9" s="24">
         <f>'Cl calculation'!I9</f>
-        <v>0.58136757882618684</v>
-      </c>
-      <c r="I9" s="17">
+        <v>0.56646147576832984</v>
+      </c>
+      <c r="I9" s="16">
         <f>'CD calculation'!I9</f>
-        <v>8.1065886497896381E-2</v>
+        <v>0.1879656617159815</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>30.542575344206757</v>
+        <v>1.4739313189885286</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="1"/>
-        <v>26.425010948462663</v>
+        <v>3.0136433995282621</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="2"/>
-        <v>7.1147295114568205</v>
+        <v>1.4739313189885284</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="3"/>
-        <v>7.1715440852086783</v>
+        <v>3.0136433995282621</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="23">
         <f>'Cl calculation'!B10</f>
-        <v>8.5466561720833029E-2</v>
-      </c>
-      <c r="C10" s="6">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D10" s="5">
+        <v>7.6222156022640458E-2</v>
+      </c>
+      <c r="C10" s="25">
+        <f>'CD calculation'!B10</f>
+        <v>6.7392912314974587E-2</v>
+      </c>
+      <c r="D10" s="23">
         <f>'Cl calculation'!F10</f>
-        <v>0.54865231414851878</v>
-      </c>
-      <c r="E10" s="6">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F10" s="5">
+        <v>0.52947288968252348</v>
+      </c>
+      <c r="E10" s="25">
+        <f>'CD calculation'!F10</f>
+        <v>0.20547490948505437</v>
+      </c>
+      <c r="F10" s="23">
         <f>'Cl calculation'!E10</f>
-        <v>0.68837459261317013</v>
-      </c>
-      <c r="G10" s="6">
+        <v>0.61391723901995776</v>
+      </c>
+      <c r="G10" s="25">
         <f>'CD calculation'!E10</f>
-        <v>0.12172079747702319</v>
-      </c>
-      <c r="H10">
+        <v>0.54280373078969302</v>
+      </c>
+      <c r="H10" s="24">
         <f>'Cl calculation'!I10</f>
-        <v>0.68424269483067712</v>
-      </c>
-      <c r="I10" s="17">
+        <v>0.66032339157888842</v>
+      </c>
+      <c r="I10" s="16">
         <f>'CD calculation'!I10</f>
-        <v>0.12105606718530111</v>
+        <v>0.25625464827272093</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>36.522468846386786</v>
+        <v>1.1310114580951864</v>
       </c>
       <c r="K10" s="17">
         <f t="shared" si="1"/>
-        <v>32.001947116740006</v>
+        <v>2.5768250294376491</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="2"/>
-        <v>5.6553572346016896</v>
+        <v>1.1310114580951864</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="3"/>
-        <v>5.6522792350696767</v>
+        <v>2.5768250294376487</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="23">
         <f>'Cl calculation'!B11</f>
-        <v>9.6994136139688672E-2</v>
-      </c>
-      <c r="C11" s="6">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D11" s="5">
+        <v>8.3386886038402164E-2</v>
+      </c>
+      <c r="C11" s="25">
+        <f>'CD calculation'!B11</f>
+        <v>8.4729840180506236E-2</v>
+      </c>
+      <c r="D11" s="23">
         <f>'Cl calculation'!F11</f>
-        <v>0.57047957989387366</v>
-      </c>
-      <c r="E11" s="6">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F11" s="5">
+        <v>0.54560335482056144</v>
+      </c>
+      <c r="E11" s="25">
+        <f>'CD calculation'!F11</f>
+        <v>0.23828546887742966</v>
+      </c>
+      <c r="F11" s="23">
         <f>'Cl calculation'!E11</f>
-        <v>0.77185650717739451</v>
-      </c>
-      <c r="G11" s="6">
+        <v>0.66357321342917963</v>
+      </c>
+      <c r="G11" s="25">
         <f>'CD calculation'!E11</f>
-        <v>0.1637013613708469</v>
-      </c>
-      <c r="H11">
+        <v>0.67426012641875477</v>
+      </c>
+      <c r="H11" s="24">
         <f>'Cl calculation'!I11</f>
-        <v>0.72763802323883042</v>
-      </c>
-      <c r="I11" s="17">
+        <v>0.69590877669619966</v>
+      </c>
+      <c r="I11" s="16">
         <f>'CD calculation'!I11</f>
-        <v>0.15438908552441821</v>
+        <v>0.30392948959323957</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>41.448553026095105</v>
+        <v>0.98415016316278803</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" si="1"/>
-        <v>33.275094037062281</v>
+        <v>2.2897046865296318</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="2"/>
-        <v>4.7150280285625783</v>
+        <v>0.98415016316278814</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="3"/>
-        <v>4.7130146588228028</v>
+        <v>2.2897046865296322</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>14</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="23">
         <f>'Cl calculation'!B12</f>
-        <v>0.10178262822102394</v>
-      </c>
-      <c r="C12" s="6">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D12" s="5">
+        <v>8.1792400431305756E-2</v>
+      </c>
+      <c r="C12" s="25">
+        <f>'CD calculation'!B12</f>
+        <v>0.10531799925326646</v>
+      </c>
+      <c r="D12" s="23">
         <f>'Cl calculation'!F12</f>
-        <v>0.59686190204546574</v>
-      </c>
-      <c r="E12" s="6">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F12" s="5">
+        <v>0.56376752359403415</v>
+      </c>
+      <c r="E12" s="25">
+        <f>'CD calculation'!F12</f>
+        <v>0.28145821139186677</v>
+      </c>
+      <c r="F12" s="23">
         <f>'Cl calculation'!E12</f>
-        <v>0.80040605484141392</v>
-      </c>
-      <c r="G12" s="6">
+        <v>0.64320536509498283</v>
+      </c>
+      <c r="G12" s="25">
         <f>'CD calculation'!E12</f>
-        <v>0.2004273885485551</v>
-      </c>
-      <c r="H12">
+        <v>0.82820777729421802</v>
+      </c>
+      <c r="H12" s="24">
         <f>'Cl calculation'!I12</f>
-        <v>0.75177612114800429</v>
-      </c>
-      <c r="I12" s="17">
+        <v>0.71009216816196474</v>
+      </c>
+      <c r="I12" s="16">
         <f>'CD calculation'!I12</f>
-        <v>0.18632968995780344</v>
+        <v>0.35451008298618897</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>43.494821757871023</v>
+        <v>0.77662318892531512</v>
       </c>
       <c r="K12" s="17">
         <f t="shared" si="1"/>
-        <v>34.813929573776164</v>
+        <v>2.0030238976013233</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="2"/>
-        <v>3.9934964010545362</v>
+        <v>0.77662318892531512</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" si="3"/>
-        <v>4.0346555684080885</v>
+        <v>2.0030238976013233</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>16</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="23">
         <f>'Cl calculation'!B13</f>
-        <v>0.10095680937465631</v>
-      </c>
-      <c r="C13" s="6">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D13" s="5">
+        <v>7.5567134243002529E-2</v>
+      </c>
+      <c r="C13" s="25">
+        <f>'CD calculation'!B13</f>
+        <v>0.1175042156439578</v>
+      </c>
+      <c r="D13" s="23">
         <f>'Cl calculation'!F13</f>
-        <v>0.61177961470264131</v>
-      </c>
-      <c r="E13" s="6">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F13" s="5">
+        <v>0.56758516291488015</v>
+      </c>
+      <c r="E13" s="25">
+        <f>'CD calculation'!F13</f>
+        <v>0.32952557087949885</v>
+      </c>
+      <c r="F13" s="23">
         <f>'Cl calculation'!E13</f>
-        <v>0.81211994884123773</v>
-      </c>
-      <c r="G13" s="6">
+        <v>0.60787952368581954</v>
+      </c>
+      <c r="G13" s="25">
         <f>'CD calculation'!E13</f>
-        <v>0.2328286900416888</v>
-      </c>
-      <c r="H13">
+        <v>0.94523111604353471</v>
+      </c>
+      <c r="H13" s="24">
         <f>'Cl calculation'!I13</f>
-        <v>0.74244503417056995</v>
-      </c>
-      <c r="I13" s="17">
+        <v>0.68881142089030012</v>
+      </c>
+      <c r="I13" s="16">
         <f>'CD calculation'!I13</f>
-        <v>0.21265305812787713</v>
+        <v>0.39990646607377028</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>43.141924174512774</v>
+        <v>0.64310147366945369</v>
       </c>
       <c r="K13" s="17">
         <f t="shared" si="1"/>
-        <v>35.684054130342652</v>
+        <v>1.7224313166350149</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="2"/>
-        <v>3.4880578879511144</v>
+        <v>0.64310147366945369</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="3"/>
-        <v>3.4913442614312507</v>
+        <v>1.7224313166350149</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>18</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="23">
         <f>'Cl calculation'!B14</f>
-        <v>0.10738775983146587</v>
-      </c>
-      <c r="C14" s="6">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D14" s="5">
+        <v>7.5237293785840084E-2</v>
+      </c>
+      <c r="C14" s="25">
+        <f>'CD calculation'!B14</f>
+        <v>0.13399586502987096</v>
+      </c>
+      <c r="D14" s="23">
         <f>'Cl calculation'!F14</f>
-        <v>0.61295187783143001</v>
-      </c>
-      <c r="E14" s="6">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F14" s="5">
+        <v>0.56106586145192949</v>
+      </c>
+      <c r="E14" s="25">
+        <f>'CD calculation'!F14</f>
+        <v>0.3586514411157038</v>
+      </c>
+      <c r="F14" s="23">
         <f>'Cl calculation'!E14</f>
-        <v>0.87499642885372675</v>
-      </c>
-      <c r="G14" s="6">
+        <v>0.61303414357973329</v>
+      </c>
+      <c r="G14" s="25">
         <f>'CD calculation'!E14</f>
-        <v>0.28362036595065443</v>
-      </c>
-      <c r="H14">
+        <v>1.0917995083081027</v>
+      </c>
+      <c r="H14" s="24">
         <f>'Cl calculation'!I14</f>
-        <v>0.77300083134584929</v>
-      </c>
-      <c r="I14" s="17">
+        <v>0.70756676507220218</v>
+      </c>
+      <c r="I14" s="16">
         <f>'CD calculation'!I14</f>
-        <v>0.24988023190514397</v>
+        <v>0.45229955592381771</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>45.890065470738939</v>
+        <v>0.5614896681257131</v>
       </c>
       <c r="K14" s="17">
         <f t="shared" si="1"/>
-        <v>35.752430225160772</v>
+        <v>1.5643764310734365</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="2"/>
-        <v>3.0850973128141392</v>
+        <v>0.5614896681257131</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="3"/>
-        <v>3.0934853287605599</v>
+        <v>1.5643764310734365</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>20</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="23">
         <f>'Cl calculation'!B15</f>
-        <v>0.11485254877695543</v>
-      </c>
-      <c r="C15" s="6">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D15" s="5">
+        <v>7.4240067235690224E-2</v>
+      </c>
+      <c r="C15" s="25">
+        <f>'CD calculation'!B15</f>
+        <v>0.15336800197099132</v>
+      </c>
+      <c r="D15" s="23">
         <f>'Cl calculation'!F15</f>
-        <v>0.62158940983959998</v>
-      </c>
-      <c r="E15" s="6">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F15" s="5">
+        <v>0.55899521125931817</v>
+      </c>
+      <c r="E15" s="25">
+        <f>'CD calculation'!F15</f>
+        <v>0.39836827670354857</v>
+      </c>
+      <c r="F15" s="23">
         <f>'Cl calculation'!E15</f>
-        <v>0.90255963445108567</v>
-      </c>
-      <c r="G15" s="6">
+        <v>0.58340967318013071</v>
+      </c>
+      <c r="G15" s="25">
         <f>'CD calculation'!E15</f>
-        <v>0.32858388331520633</v>
-      </c>
-      <c r="H15">
+        <v>1.2052302649743662</v>
+      </c>
+      <c r="H15" s="24">
         <f>'Cl calculation'!I15</f>
-        <v>0.78631707477058721</v>
-      </c>
-      <c r="I15" s="17">
+        <v>0.70713476190274527</v>
+      </c>
+      <c r="I15" s="16">
         <f>'CD calculation'!I15</f>
-        <v>0.28699115460485025</v>
+        <v>0.50394001741401317</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>49.079997488795534</v>
+        <v>0.48406490455376938</v>
       </c>
       <c r="K15" s="17">
         <f t="shared" si="1"/>
-        <v>36.256242631335688</v>
+        <v>1.4032121630892371</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="2"/>
-        <v>2.7468165064726309</v>
+        <v>0.48406490455376933</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="3"/>
-        <v>2.7398651915012651</v>
+        <v>1.4032121630892371</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>22</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="23">
         <f>'Cl calculation'!B16</f>
-        <v>0.12161973659958972</v>
-      </c>
-      <c r="C16" s="9">
-        <f>'CD calculation'!$B$3</f>
-        <v>2.3401091005184975E-3</v>
-      </c>
-      <c r="D16" s="7">
+        <v>7.0499049428713309E-2</v>
+      </c>
+      <c r="C16" s="25">
+        <f>'CD calculation'!B16</f>
+        <v>0.17553019073201151</v>
+      </c>
+      <c r="D16" s="23">
         <f>'Cl calculation'!F16</f>
-        <v>0.6579782138869561</v>
-      </c>
-      <c r="E16" s="9">
-        <f>'CD calculation'!$F$3</f>
-        <v>1.7144341628560544E-2</v>
-      </c>
-      <c r="F16" s="7">
+        <v>0.58325938820631429</v>
+      </c>
+      <c r="E16" s="25">
+        <f>'CD calculation'!F16</f>
+        <v>0.45095598697648076</v>
+      </c>
+      <c r="F16" s="23">
         <f>'Cl calculation'!E16</f>
-        <v>0.9606829989527168</v>
-      </c>
-      <c r="G16" s="9">
+        <v>0.55687703428820445</v>
+      </c>
+      <c r="G16" s="25">
         <f>'CD calculation'!E16</f>
-        <v>0.38882272633890619</v>
-      </c>
-      <c r="H16" s="8">
+        <v>1.3865255324006356</v>
+      </c>
+      <c r="H16" s="24">
         <f>'Cl calculation'!I16</f>
-        <v>0.84486073040376986</v>
-      </c>
-      <c r="I16" s="18">
+        <v>0.74891986137933653</v>
+      </c>
+      <c r="I16" s="16">
         <f>'CD calculation'!I16</f>
-        <v>0.34210130415008594</v>
+        <v>0.57903893547812701</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" si="0"/>
-        <v>51.971823267830743</v>
+        <v>0.40163489331785002</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="1"/>
-        <v>38.378739069853722</v>
+        <v>1.2933842881583335</v>
       </c>
       <c r="L16" s="7">
         <f t="shared" si="2"/>
-        <v>2.470748065573114</v>
+        <v>0.40163489331785002</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="3"/>
-        <v>2.4696214839131816</v>
+        <v>1.2933842881583335</v>
       </c>
     </row>
   </sheetData>
